--- a/apps/load_data/2018/06/PLMOVMAE.xlsx
+++ b/apps/load_data/2018/06/PLMOVMAE.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20417"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\NOMBRADOS -2018\HHY0618\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ACTUALIZADOS\2018\HHY0618\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B88F6991-36B8-47F3-ADE6-A88C3FBA120E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB267359-09C6-487F-BC8E-925224A38480}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13800" windowHeight="10305"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13800" windowHeight="10305" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PLMOVMAE" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">PLMOVMAE!$A$1:$CF$266</definedName>
     <definedName name="_xlnm.Database">PLMOVMAE!$A$1:$CF$266</definedName>
   </definedNames>
   <calcPr calcId="0"/>
@@ -23,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10597" uniqueCount="2870">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10584" uniqueCount="2868">
   <si>
     <t>CODEJE</t>
   </si>
@@ -7036,9 +7037,6 @@
     <t>0064A         1</t>
   </si>
   <si>
-    <t>S/N</t>
-  </si>
-  <si>
     <t>1047    129034    1290341081    326625    3266251082    175875    1758752001         0     424612006     45300     453002026    326264    3262642027      3068      30682029      1500      15002086      2500      25002180       250       250</t>
   </si>
   <si>
@@ -8507,9 +8505,6 @@
   </si>
   <si>
     <t>0148A         1</t>
-  </si>
-  <si>
-    <t>S/M</t>
   </si>
   <si>
     <t>6501080BIHTE003</t>
@@ -8638,7 +8633,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
@@ -9478,10 +9473,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:CF266"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="AD272" sqref="AD272"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -45857,12 +45854,7 @@
       <c r="AA209" s="1">
         <v>0</v>
       </c>
-      <c r="AC209" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD209" s="1" t="s">
-        <v>2337</v>
-      </c>
+      <c r="AC209" s="3"/>
       <c r="AF209" s="1" t="s">
         <v>103</v>
       </c>
@@ -45927,10 +45919,10 @@
         <v>111</v>
       </c>
       <c r="BH209" s="1" t="s">
+        <v>2337</v>
+      </c>
+      <c r="BI209" s="1" t="s">
         <v>2338</v>
-      </c>
-      <c r="BI209" s="1" t="s">
-        <v>2339</v>
       </c>
       <c r="BM209" s="1" t="s">
         <v>114</v>
@@ -45942,7 +45934,7 @@
         <v>155</v>
       </c>
       <c r="BT209" s="1" t="s">
-        <v>2340</v>
+        <v>2339</v>
       </c>
       <c r="BU209" s="1" t="s">
         <v>118</v>
@@ -45963,13 +45955,13 @@
         <v>107</v>
       </c>
       <c r="CC209" s="1" t="s">
+        <v>2340</v>
+      </c>
+      <c r="CD209" s="1" t="s">
         <v>2341</v>
       </c>
-      <c r="CD209" s="1" t="s">
+      <c r="CE209" s="1" t="s">
         <v>2342</v>
-      </c>
-      <c r="CE209" s="1" t="s">
-        <v>2343</v>
       </c>
     </row>
     <row r="210" spans="1:83" x14ac:dyDescent="0.25">
@@ -46004,19 +45996,19 @@
         <v>93</v>
       </c>
       <c r="K210" s="1" t="s">
+        <v>2343</v>
+      </c>
+      <c r="L210" s="1" t="s">
         <v>2344</v>
       </c>
-      <c r="L210" s="1" t="s">
+      <c r="N210" s="1" t="s">
         <v>2345</v>
       </c>
-      <c r="N210" s="1" t="s">
+      <c r="O210" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="P210" s="1" t="s">
         <v>2346</v>
-      </c>
-      <c r="O210" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="P210" s="1" t="s">
-        <v>2347</v>
       </c>
       <c r="Q210" s="3">
         <v>27241</v>
@@ -46042,12 +46034,7 @@
       <c r="AB210" s="1" t="s">
         <v>1219</v>
       </c>
-      <c r="AC210" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD210" s="1" t="s">
-        <v>2337</v>
-      </c>
+      <c r="AC210" s="3"/>
       <c r="AF210" s="1" t="s">
         <v>103</v>
       </c>
@@ -46094,7 +46081,7 @@
         <v>107</v>
       </c>
       <c r="AZ210" s="1" t="s">
-        <v>2348</v>
+        <v>2347</v>
       </c>
       <c r="BB210" s="1">
         <v>6</v>
@@ -46112,7 +46099,7 @@
         <v>111</v>
       </c>
       <c r="BH210" s="1" t="s">
-        <v>2349</v>
+        <v>2348</v>
       </c>
       <c r="BI210" s="1" t="s">
         <v>1652</v>
@@ -46127,13 +46114,13 @@
         <v>99</v>
       </c>
       <c r="BR210" s="1" t="s">
-        <v>2350</v>
+        <v>2349</v>
       </c>
       <c r="BS210" s="3">
         <v>36949</v>
       </c>
       <c r="BT210" s="1" t="s">
-        <v>2351</v>
+        <v>2350</v>
       </c>
       <c r="BU210" s="1" t="s">
         <v>118</v>
@@ -46157,13 +46144,13 @@
         <v>107</v>
       </c>
       <c r="CC210" s="1" t="s">
-        <v>2352</v>
+        <v>2351</v>
       </c>
       <c r="CD210" s="1" t="s">
         <v>1940</v>
       </c>
       <c r="CE210" s="1" t="s">
-        <v>2353</v>
+        <v>2352</v>
       </c>
     </row>
     <row r="211" spans="1:83" x14ac:dyDescent="0.25">
@@ -46198,19 +46185,19 @@
         <v>93</v>
       </c>
       <c r="K211" s="1" t="s">
+        <v>2353</v>
+      </c>
+      <c r="L211" s="1" t="s">
         <v>2354</v>
       </c>
-      <c r="L211" s="1" t="s">
+      <c r="N211" s="1" t="s">
         <v>2355</v>
       </c>
-      <c r="N211" s="1" t="s">
+      <c r="O211" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="P211" s="1" t="s">
         <v>2356</v>
-      </c>
-      <c r="O211" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="P211" s="1" t="s">
-        <v>2357</v>
       </c>
       <c r="Q211" s="3">
         <v>25223</v>
@@ -46236,12 +46223,7 @@
       <c r="AB211" s="1" t="s">
         <v>1219</v>
       </c>
-      <c r="AC211" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD211" s="1" t="s">
-        <v>2337</v>
-      </c>
+      <c r="AC211" s="3"/>
       <c r="AF211" s="1" t="s">
         <v>103</v>
       </c>
@@ -46288,7 +46270,7 @@
         <v>107</v>
       </c>
       <c r="AZ211" s="1" t="s">
-        <v>2358</v>
+        <v>2357</v>
       </c>
       <c r="BB211" s="1">
         <v>6</v>
@@ -46309,10 +46291,10 @@
         <v>111</v>
       </c>
       <c r="BH211" s="1" t="s">
+        <v>2358</v>
+      </c>
+      <c r="BI211" s="1" t="s">
         <v>2359</v>
-      </c>
-      <c r="BI211" s="1" t="s">
-        <v>2360</v>
       </c>
       <c r="BM211" s="1" t="s">
         <v>114</v>
@@ -46324,13 +46306,13 @@
         <v>99</v>
       </c>
       <c r="BR211" s="1" t="s">
-        <v>2361</v>
+        <v>2360</v>
       </c>
       <c r="BS211" s="3">
         <v>36825</v>
       </c>
       <c r="BT211" s="1" t="s">
-        <v>2362</v>
+        <v>2361</v>
       </c>
       <c r="BU211" s="1" t="s">
         <v>118</v>
@@ -46354,13 +46336,13 @@
         <v>107</v>
       </c>
       <c r="CC211" s="1" t="s">
+        <v>2362</v>
+      </c>
+      <c r="CD211" s="1" t="s">
         <v>2363</v>
       </c>
-      <c r="CD211" s="1" t="s">
+      <c r="CE211" s="1" t="s">
         <v>2364</v>
-      </c>
-      <c r="CE211" s="1" t="s">
-        <v>2365</v>
       </c>
     </row>
     <row r="212" spans="1:83" x14ac:dyDescent="0.25">
@@ -46395,19 +46377,19 @@
         <v>93</v>
       </c>
       <c r="K212" s="1" t="s">
+        <v>2365</v>
+      </c>
+      <c r="L212" s="1" t="s">
         <v>2366</v>
       </c>
-      <c r="L212" s="1" t="s">
+      <c r="N212" s="1" t="s">
         <v>2367</v>
       </c>
-      <c r="N212" s="1" t="s">
+      <c r="O212" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="P212" s="1" t="s">
         <v>2368</v>
-      </c>
-      <c r="O212" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="P212" s="1" t="s">
-        <v>2369</v>
       </c>
       <c r="Q212" s="3">
         <v>27018</v>
@@ -46430,12 +46412,7 @@
       <c r="AA212" s="1">
         <v>0</v>
       </c>
-      <c r="AC212" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD212" s="1" t="s">
-        <v>2337</v>
-      </c>
+      <c r="AC212" s="3"/>
       <c r="AF212" s="1" t="s">
         <v>103</v>
       </c>
@@ -46485,7 +46462,7 @@
         <v>107</v>
       </c>
       <c r="AZ212" s="1" t="s">
-        <v>2370</v>
+        <v>2369</v>
       </c>
       <c r="BB212" s="1">
         <v>6</v>
@@ -46503,7 +46480,7 @@
         <v>111</v>
       </c>
       <c r="BH212" s="1" t="s">
-        <v>2371</v>
+        <v>2370</v>
       </c>
       <c r="BI212" s="1" t="s">
         <v>1135</v>
@@ -46515,7 +46492,7 @@
         <v>102</v>
       </c>
       <c r="BT212" s="1" t="s">
-        <v>2372</v>
+        <v>2371</v>
       </c>
       <c r="BU212" s="1" t="s">
         <v>118</v>
@@ -46533,13 +46510,13 @@
         <v>107</v>
       </c>
       <c r="CC212" s="1" t="s">
-        <v>2373</v>
+        <v>2372</v>
       </c>
       <c r="CD212" s="1" t="s">
         <v>1210</v>
       </c>
       <c r="CE212" s="1" t="s">
-        <v>2374</v>
+        <v>2373</v>
       </c>
     </row>
     <row r="213" spans="1:83" x14ac:dyDescent="0.25">
@@ -46574,19 +46551,19 @@
         <v>93</v>
       </c>
       <c r="K213" s="1" t="s">
+        <v>2374</v>
+      </c>
+      <c r="L213" s="1" t="s">
         <v>2375</v>
       </c>
-      <c r="L213" s="1" t="s">
+      <c r="N213" s="1" t="s">
         <v>2376</v>
       </c>
-      <c r="N213" s="1" t="s">
+      <c r="O213" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="P213" s="1" t="s">
         <v>2377</v>
-      </c>
-      <c r="O213" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="P213" s="1" t="s">
-        <v>2378</v>
       </c>
       <c r="Q213" s="3">
         <v>29037</v>
@@ -46609,12 +46586,7 @@
       <c r="AA213" s="1">
         <v>0</v>
       </c>
-      <c r="AC213" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD213" s="1" t="s">
-        <v>2337</v>
-      </c>
+      <c r="AC213" s="3"/>
       <c r="AF213" s="1" t="s">
         <v>103</v>
       </c>
@@ -46664,7 +46636,7 @@
         <v>107</v>
       </c>
       <c r="AZ213" s="1" t="s">
-        <v>2379</v>
+        <v>2378</v>
       </c>
       <c r="BB213" s="1">
         <v>6</v>
@@ -46682,7 +46654,7 @@
         <v>111</v>
       </c>
       <c r="BH213" s="1" t="s">
-        <v>2380</v>
+        <v>2379</v>
       </c>
       <c r="BM213" s="1" t="s">
         <v>114</v>
@@ -46691,7 +46663,7 @@
         <v>102</v>
       </c>
       <c r="BT213" s="1" t="s">
-        <v>2381</v>
+        <v>2380</v>
       </c>
       <c r="BU213" s="1" t="s">
         <v>118</v>
@@ -46712,10 +46684,10 @@
         <v>691</v>
       </c>
       <c r="CD213" s="1" t="s">
+        <v>2381</v>
+      </c>
+      <c r="CE213" s="1" t="s">
         <v>2382</v>
-      </c>
-      <c r="CE213" s="1" t="s">
-        <v>2383</v>
       </c>
     </row>
     <row r="214" spans="1:83" x14ac:dyDescent="0.25">
@@ -46750,19 +46722,19 @@
         <v>93</v>
       </c>
       <c r="K214" s="1" t="s">
+        <v>2383</v>
+      </c>
+      <c r="L214" s="1" t="s">
         <v>2384</v>
       </c>
-      <c r="L214" s="1" t="s">
+      <c r="N214" s="1" t="s">
         <v>2385</v>
       </c>
-      <c r="N214" s="1" t="s">
+      <c r="O214" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="P214" s="1" t="s">
         <v>2386</v>
-      </c>
-      <c r="O214" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="P214" s="1" t="s">
-        <v>2387</v>
       </c>
       <c r="Q214" s="3">
         <v>26647</v>
@@ -46785,12 +46757,7 @@
       <c r="AA214" s="1">
         <v>0</v>
       </c>
-      <c r="AC214" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD214" s="1" t="s">
-        <v>2337</v>
-      </c>
+      <c r="AC214" s="3"/>
       <c r="AF214" s="1" t="s">
         <v>103</v>
       </c>
@@ -46840,7 +46807,7 @@
         <v>107</v>
       </c>
       <c r="AZ214" s="1" t="s">
-        <v>2388</v>
+        <v>2387</v>
       </c>
       <c r="BB214" s="1">
         <v>6</v>
@@ -46858,7 +46825,7 @@
         <v>111</v>
       </c>
       <c r="BH214" s="1" t="s">
-        <v>2389</v>
+        <v>2388</v>
       </c>
       <c r="BI214" s="1" t="s">
         <v>616</v>
@@ -46870,7 +46837,7 @@
         <v>102</v>
       </c>
       <c r="BT214" s="1" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
       <c r="BU214" s="1" t="s">
         <v>118</v>
@@ -46888,13 +46855,13 @@
         <v>107</v>
       </c>
       <c r="CC214" s="1" t="s">
+        <v>2390</v>
+      </c>
+      <c r="CD214" s="1" t="s">
+        <v>2390</v>
+      </c>
+      <c r="CE214" s="1" t="s">
         <v>2391</v>
-      </c>
-      <c r="CD214" s="1" t="s">
-        <v>2391</v>
-      </c>
-      <c r="CE214" s="1" t="s">
-        <v>2392</v>
       </c>
     </row>
     <row r="215" spans="1:83" x14ac:dyDescent="0.25">
@@ -46929,19 +46896,19 @@
         <v>93</v>
       </c>
       <c r="K215" s="1" t="s">
+        <v>2392</v>
+      </c>
+      <c r="L215" s="1" t="s">
         <v>2393</v>
       </c>
-      <c r="L215" s="1" t="s">
+      <c r="N215" s="1" t="s">
         <v>2394</v>
       </c>
-      <c r="N215" s="1" t="s">
+      <c r="O215" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="P215" s="1" t="s">
         <v>2395</v>
-      </c>
-      <c r="O215" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="P215" s="1" t="s">
-        <v>2396</v>
       </c>
       <c r="Q215" s="3">
         <v>25405</v>
@@ -46970,12 +46937,7 @@
       <c r="AA215" s="1">
         <v>0</v>
       </c>
-      <c r="AC215" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD215" s="1" t="s">
-        <v>2337</v>
-      </c>
+      <c r="AC215" s="3"/>
       <c r="AF215" s="1" t="s">
         <v>103</v>
       </c>
@@ -47022,7 +46984,7 @@
         <v>107</v>
       </c>
       <c r="AZ215" s="1" t="s">
-        <v>2397</v>
+        <v>2396</v>
       </c>
       <c r="BB215" s="1">
         <v>6</v>
@@ -47031,7 +46993,7 @@
         <v>18</v>
       </c>
       <c r="BD215" s="1" t="s">
-        <v>2398</v>
+        <v>2397</v>
       </c>
       <c r="BE215" s="1" t="s">
         <v>109</v>
@@ -47043,7 +47005,7 @@
         <v>111</v>
       </c>
       <c r="BH215" s="1" t="s">
-        <v>2399</v>
+        <v>2398</v>
       </c>
       <c r="BI215" s="1" t="s">
         <v>462</v>
@@ -47058,13 +47020,13 @@
         <v>115</v>
       </c>
       <c r="BR215" s="1" t="s">
-        <v>2400</v>
+        <v>2399</v>
       </c>
       <c r="BS215" s="3">
         <v>35243</v>
       </c>
       <c r="BT215" s="1" t="s">
-        <v>2401</v>
+        <v>2400</v>
       </c>
       <c r="BU215" s="1" t="s">
         <v>118</v>
@@ -47082,13 +47044,13 @@
         <v>107</v>
       </c>
       <c r="CC215" s="1" t="s">
+        <v>2401</v>
+      </c>
+      <c r="CD215" s="1" t="s">
         <v>2402</v>
       </c>
-      <c r="CD215" s="1" t="s">
+      <c r="CE215" s="1" t="s">
         <v>2403</v>
-      </c>
-      <c r="CE215" s="1" t="s">
-        <v>2404</v>
       </c>
     </row>
     <row r="216" spans="1:83" x14ac:dyDescent="0.25">
@@ -47123,19 +47085,19 @@
         <v>93</v>
       </c>
       <c r="K216" s="1" t="s">
+        <v>2404</v>
+      </c>
+      <c r="L216" s="1" t="s">
         <v>2405</v>
       </c>
-      <c r="L216" s="1" t="s">
+      <c r="N216" s="1" t="s">
         <v>2406</v>
       </c>
-      <c r="N216" s="1" t="s">
+      <c r="O216" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="P216" s="1" t="s">
         <v>2407</v>
-      </c>
-      <c r="O216" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="P216" s="1" t="s">
-        <v>2408</v>
       </c>
       <c r="Q216" s="3">
         <v>28845</v>
@@ -47158,12 +47120,7 @@
       <c r="AA216" s="1">
         <v>0</v>
       </c>
-      <c r="AC216" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD216" s="1" t="s">
-        <v>2337</v>
-      </c>
+      <c r="AC216" s="3"/>
       <c r="AF216" s="1" t="s">
         <v>103</v>
       </c>
@@ -47213,7 +47170,7 @@
         <v>107</v>
       </c>
       <c r="AZ216" s="1" t="s">
-        <v>2409</v>
+        <v>2408</v>
       </c>
       <c r="BB216" s="1">
         <v>6</v>
@@ -47231,7 +47188,7 @@
         <v>111</v>
       </c>
       <c r="BH216" s="1" t="s">
-        <v>2410</v>
+        <v>2409</v>
       </c>
       <c r="BI216" s="1" t="s">
         <v>893</v>
@@ -47243,7 +47200,7 @@
         <v>102</v>
       </c>
       <c r="BT216" s="1" t="s">
-        <v>2411</v>
+        <v>2410</v>
       </c>
       <c r="BU216" s="1" t="s">
         <v>118</v>
@@ -47261,13 +47218,13 @@
         <v>107</v>
       </c>
       <c r="CC216" s="1" t="s">
+        <v>2411</v>
+      </c>
+      <c r="CD216" s="1" t="s">
         <v>2412</v>
       </c>
-      <c r="CD216" s="1" t="s">
+      <c r="CE216" s="1" t="s">
         <v>2413</v>
-      </c>
-      <c r="CE216" s="1" t="s">
-        <v>2414</v>
       </c>
     </row>
     <row r="217" spans="1:83" x14ac:dyDescent="0.25">
@@ -47302,19 +47259,19 @@
         <v>93</v>
       </c>
       <c r="K217" s="1" t="s">
+        <v>2414</v>
+      </c>
+      <c r="L217" s="1" t="s">
         <v>2415</v>
       </c>
-      <c r="L217" s="1" t="s">
+      <c r="N217" s="1" t="s">
         <v>2416</v>
       </c>
-      <c r="N217" s="1" t="s">
+      <c r="O217" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="P217" s="1" t="s">
         <v>2417</v>
-      </c>
-      <c r="O217" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="P217" s="1" t="s">
-        <v>2418</v>
       </c>
       <c r="Q217" s="3">
         <v>21425</v>
@@ -47337,12 +47294,7 @@
       <c r="AA217" s="1">
         <v>0</v>
       </c>
-      <c r="AC217" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD217" s="1" t="s">
-        <v>2337</v>
-      </c>
+      <c r="AC217" s="3"/>
       <c r="AF217" s="1" t="s">
         <v>103</v>
       </c>
@@ -47392,7 +47344,7 @@
         <v>107</v>
       </c>
       <c r="AZ217" s="1" t="s">
-        <v>2419</v>
+        <v>2418</v>
       </c>
       <c r="BB217" s="1">
         <v>6</v>
@@ -47410,7 +47362,7 @@
         <v>111</v>
       </c>
       <c r="BH217" s="1" t="s">
-        <v>2420</v>
+        <v>2419</v>
       </c>
       <c r="BI217" s="1" t="s">
         <v>893</v>
@@ -47425,7 +47377,7 @@
         <v>155</v>
       </c>
       <c r="BT217" s="1" t="s">
-        <v>2421</v>
+        <v>2420</v>
       </c>
       <c r="BU217" s="1" t="s">
         <v>118</v>
@@ -47443,13 +47395,13 @@
         <v>107</v>
       </c>
       <c r="CC217" s="1" t="s">
+        <v>2421</v>
+      </c>
+      <c r="CD217" s="1" t="s">
         <v>2422</v>
       </c>
-      <c r="CD217" s="1" t="s">
+      <c r="CE217" s="1" t="s">
         <v>2423</v>
-      </c>
-      <c r="CE217" s="1" t="s">
-        <v>2424</v>
       </c>
     </row>
     <row r="218" spans="1:83" x14ac:dyDescent="0.25">
@@ -47484,19 +47436,19 @@
         <v>93</v>
       </c>
       <c r="K218" s="1" t="s">
+        <v>2424</v>
+      </c>
+      <c r="L218" s="1" t="s">
         <v>2425</v>
       </c>
-      <c r="L218" s="1" t="s">
+      <c r="N218" s="1" t="s">
         <v>2426</v>
       </c>
-      <c r="N218" s="1" t="s">
+      <c r="O218" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="P218" s="1" t="s">
         <v>2427</v>
-      </c>
-      <c r="O218" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="P218" s="1" t="s">
-        <v>2428</v>
       </c>
       <c r="Q218" s="3">
         <v>23039</v>
@@ -47519,12 +47471,7 @@
       <c r="AA218" s="1">
         <v>0</v>
       </c>
-      <c r="AC218" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD218" s="1" t="s">
-        <v>2337</v>
-      </c>
+      <c r="AC218" s="3"/>
       <c r="AF218" s="1" t="s">
         <v>103</v>
       </c>
@@ -47571,7 +47518,7 @@
         <v>107</v>
       </c>
       <c r="AZ218" s="1" t="s">
-        <v>2429</v>
+        <v>2428</v>
       </c>
       <c r="BB218" s="1">
         <v>6</v>
@@ -47580,7 +47527,7 @@
         <v>18</v>
       </c>
       <c r="BD218" s="1" t="s">
-        <v>2430</v>
+        <v>2429</v>
       </c>
       <c r="BE218" s="1" t="s">
         <v>109</v>
@@ -47592,7 +47539,7 @@
         <v>111</v>
       </c>
       <c r="BH218" s="1" t="s">
-        <v>2431</v>
+        <v>2430</v>
       </c>
       <c r="BI218" s="1" t="s">
         <v>490</v>
@@ -47607,13 +47554,13 @@
         <v>218</v>
       </c>
       <c r="BR218" s="1" t="s">
-        <v>2432</v>
+        <v>2431</v>
       </c>
       <c r="BS218" s="3">
         <v>34307</v>
       </c>
       <c r="BT218" s="1" t="s">
-        <v>2433</v>
+        <v>2432</v>
       </c>
       <c r="BU218" s="1" t="s">
         <v>118</v>
@@ -47631,13 +47578,13 @@
         <v>107</v>
       </c>
       <c r="CC218" s="1" t="s">
-        <v>2434</v>
+        <v>2433</v>
       </c>
       <c r="CD218" s="1" t="s">
         <v>453</v>
       </c>
       <c r="CE218" s="1" t="s">
-        <v>2435</v>
+        <v>2434</v>
       </c>
     </row>
     <row r="219" spans="1:83" x14ac:dyDescent="0.25">
@@ -47672,19 +47619,19 @@
         <v>93</v>
       </c>
       <c r="K219" s="1" t="s">
+        <v>2435</v>
+      </c>
+      <c r="L219" s="1" t="s">
         <v>2436</v>
       </c>
-      <c r="L219" s="1" t="s">
+      <c r="N219" s="1" t="s">
         <v>2437</v>
       </c>
-      <c r="N219" s="1" t="s">
+      <c r="O219" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="P219" s="1" t="s">
         <v>2438</v>
-      </c>
-      <c r="O219" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="P219" s="1" t="s">
-        <v>2439</v>
       </c>
       <c r="Q219" s="3">
         <v>23286</v>
@@ -47710,12 +47657,7 @@
       <c r="AA219" s="1">
         <v>0</v>
       </c>
-      <c r="AC219" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD219" s="1" t="s">
-        <v>2337</v>
-      </c>
+      <c r="AC219" s="3"/>
       <c r="AF219" s="1" t="s">
         <v>103</v>
       </c>
@@ -47765,7 +47707,7 @@
         <v>107</v>
       </c>
       <c r="AZ219" s="1" t="s">
-        <v>2440</v>
+        <v>2439</v>
       </c>
       <c r="BB219" s="1">
         <v>6</v>
@@ -47786,7 +47728,7 @@
         <v>111</v>
       </c>
       <c r="BH219" s="1" t="s">
-        <v>2441</v>
+        <v>2440</v>
       </c>
       <c r="BI219" s="1" t="s">
         <v>1864</v>
@@ -47798,7 +47740,7 @@
         <v>102</v>
       </c>
       <c r="BT219" s="1" t="s">
-        <v>2442</v>
+        <v>2441</v>
       </c>
       <c r="BU219" s="1" t="s">
         <v>118</v>
@@ -47819,13 +47761,13 @@
         <v>107</v>
       </c>
       <c r="CC219" s="1" t="s">
+        <v>2442</v>
+      </c>
+      <c r="CD219" s="1" t="s">
         <v>2443</v>
       </c>
-      <c r="CD219" s="1" t="s">
+      <c r="CE219" s="1" t="s">
         <v>2444</v>
-      </c>
-      <c r="CE219" s="1" t="s">
-        <v>2445</v>
       </c>
     </row>
     <row r="220" spans="1:83" x14ac:dyDescent="0.25">
@@ -47860,19 +47802,19 @@
         <v>93</v>
       </c>
       <c r="K220" s="1" t="s">
+        <v>2445</v>
+      </c>
+      <c r="L220" s="1" t="s">
         <v>2446</v>
       </c>
-      <c r="L220" s="1" t="s">
+      <c r="N220" s="1" t="s">
         <v>2447</v>
       </c>
-      <c r="N220" s="1" t="s">
+      <c r="O220" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="P220" s="1" t="s">
         <v>2448</v>
-      </c>
-      <c r="O220" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="P220" s="1" t="s">
-        <v>2449</v>
       </c>
       <c r="Q220" s="3">
         <v>26907</v>
@@ -47895,12 +47837,7 @@
       <c r="AA220" s="1">
         <v>0</v>
       </c>
-      <c r="AC220" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD220" s="1" t="s">
-        <v>2337</v>
-      </c>
+      <c r="AC220" s="3"/>
       <c r="AF220" s="1" t="s">
         <v>103</v>
       </c>
@@ -47947,7 +47884,7 @@
         <v>107</v>
       </c>
       <c r="AZ220" s="1" t="s">
-        <v>2450</v>
+        <v>2449</v>
       </c>
       <c r="BB220" s="1">
         <v>6</v>
@@ -47968,10 +47905,10 @@
         <v>111</v>
       </c>
       <c r="BH220" s="1" t="s">
+        <v>2450</v>
+      </c>
+      <c r="BI220" s="1" t="s">
         <v>2451</v>
-      </c>
-      <c r="BI220" s="1" t="s">
-        <v>2452</v>
       </c>
       <c r="BM220" s="1" t="s">
         <v>114</v>
@@ -47983,13 +47920,13 @@
         <v>115</v>
       </c>
       <c r="BR220" s="1" t="s">
-        <v>2453</v>
+        <v>2452</v>
       </c>
       <c r="BS220" s="3">
         <v>35950</v>
       </c>
       <c r="BT220" s="1" t="s">
-        <v>2454</v>
+        <v>2453</v>
       </c>
       <c r="BU220" s="1" t="s">
         <v>118</v>
@@ -48007,13 +47944,13 @@
         <v>107</v>
       </c>
       <c r="CC220" s="1" t="s">
-        <v>2455</v>
+        <v>2454</v>
       </c>
       <c r="CD220" s="1" t="s">
         <v>1766</v>
       </c>
       <c r="CE220" s="1" t="s">
-        <v>2456</v>
+        <v>2455</v>
       </c>
     </row>
     <row r="221" spans="1:83" x14ac:dyDescent="0.25">
@@ -48048,19 +47985,19 @@
         <v>162</v>
       </c>
       <c r="K221" s="1" t="s">
+        <v>2456</v>
+      </c>
+      <c r="L221" s="1" t="s">
         <v>2457</v>
       </c>
-      <c r="L221" s="1" t="s">
+      <c r="N221" s="1" t="s">
         <v>2458</v>
       </c>
-      <c r="N221" s="1" t="s">
+      <c r="O221" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="P221" s="1" t="s">
         <v>2459</v>
-      </c>
-      <c r="O221" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="P221" s="1" t="s">
-        <v>2460</v>
       </c>
       <c r="Q221" s="3">
         <v>26349</v>
@@ -48105,7 +48042,7 @@
         <v>0</v>
       </c>
       <c r="AN221" s="1" t="s">
-        <v>2461</v>
+        <v>2460</v>
       </c>
       <c r="AO221" s="1">
         <v>0</v>
@@ -48150,13 +48087,13 @@
         <v>111</v>
       </c>
       <c r="BH221" s="1" t="s">
-        <v>2462</v>
+        <v>2461</v>
       </c>
       <c r="BM221" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BT221" s="1" t="s">
-        <v>2463</v>
+        <v>2462</v>
       </c>
       <c r="BU221" s="1" t="s">
         <v>118</v>
@@ -48180,10 +48117,10 @@
         <v>2223</v>
       </c>
       <c r="CD221" s="1" t="s">
+        <v>2463</v>
+      </c>
+      <c r="CE221" s="1" t="s">
         <v>2464</v>
-      </c>
-      <c r="CE221" s="1" t="s">
-        <v>2465</v>
       </c>
     </row>
     <row r="222" spans="1:83" x14ac:dyDescent="0.25">
@@ -48218,19 +48155,19 @@
         <v>162</v>
       </c>
       <c r="K222" s="1" t="s">
+        <v>2465</v>
+      </c>
+      <c r="L222" s="1" t="s">
         <v>2466</v>
       </c>
-      <c r="L222" s="1" t="s">
+      <c r="N222" s="1" t="s">
         <v>2467</v>
       </c>
-      <c r="N222" s="1" t="s">
+      <c r="O222" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="P222" s="1" t="s">
         <v>2468</v>
-      </c>
-      <c r="O222" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="P222" s="1" t="s">
-        <v>2469</v>
       </c>
       <c r="Q222" s="3">
         <v>30589</v>
@@ -48278,7 +48215,7 @@
         <v>0</v>
       </c>
       <c r="AN222" s="1" t="s">
-        <v>2354</v>
+        <v>2353</v>
       </c>
       <c r="AO222" s="1">
         <v>0</v>
@@ -48323,13 +48260,13 @@
         <v>111</v>
       </c>
       <c r="BH222" s="1" t="s">
-        <v>2470</v>
+        <v>2469</v>
       </c>
       <c r="BM222" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BT222" s="1" t="s">
-        <v>2471</v>
+        <v>2470</v>
       </c>
       <c r="BU222" s="1" t="s">
         <v>118</v>
@@ -48350,13 +48287,13 @@
         <v>107</v>
       </c>
       <c r="CC222" s="1" t="s">
+        <v>2471</v>
+      </c>
+      <c r="CD222" s="1" t="s">
         <v>2472</v>
       </c>
-      <c r="CD222" s="1" t="s">
+      <c r="CE222" s="1" t="s">
         <v>2473</v>
-      </c>
-      <c r="CE222" s="1" t="s">
-        <v>2474</v>
       </c>
     </row>
     <row r="223" spans="1:83" x14ac:dyDescent="0.25">
@@ -48391,19 +48328,19 @@
         <v>162</v>
       </c>
       <c r="K223" s="1" t="s">
+        <v>2474</v>
+      </c>
+      <c r="L223" s="1" t="s">
         <v>2475</v>
       </c>
-      <c r="L223" s="1" t="s">
+      <c r="N223" s="1" t="s">
         <v>2476</v>
       </c>
-      <c r="N223" s="1" t="s">
+      <c r="O223" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="P223" s="1" t="s">
         <v>2477</v>
-      </c>
-      <c r="O223" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="P223" s="1" t="s">
-        <v>2478</v>
       </c>
       <c r="Q223" s="3">
         <v>27354</v>
@@ -48451,7 +48388,7 @@
         <v>0</v>
       </c>
       <c r="AN223" s="1" t="s">
-        <v>2354</v>
+        <v>2353</v>
       </c>
       <c r="AO223" s="1">
         <v>0</v>
@@ -48496,13 +48433,13 @@
         <v>111</v>
       </c>
       <c r="BH223" s="1" t="s">
-        <v>2479</v>
+        <v>2478</v>
       </c>
       <c r="BM223" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BT223" s="1" t="s">
-        <v>2480</v>
+        <v>2479</v>
       </c>
       <c r="BU223" s="1" t="s">
         <v>118</v>
@@ -48523,13 +48460,13 @@
         <v>107</v>
       </c>
       <c r="CC223" s="1" t="s">
+        <v>2480</v>
+      </c>
+      <c r="CD223" s="1" t="s">
         <v>2481</v>
       </c>
-      <c r="CD223" s="1" t="s">
+      <c r="CE223" s="1" t="s">
         <v>2482</v>
-      </c>
-      <c r="CE223" s="1" t="s">
-        <v>2483</v>
       </c>
     </row>
     <row r="224" spans="1:83" x14ac:dyDescent="0.25">
@@ -48564,19 +48501,19 @@
         <v>162</v>
       </c>
       <c r="K224" s="1" t="s">
+        <v>2483</v>
+      </c>
+      <c r="L224" s="1" t="s">
         <v>2484</v>
       </c>
-      <c r="L224" s="1" t="s">
+      <c r="N224" s="1" t="s">
         <v>2485</v>
       </c>
-      <c r="N224" s="1" t="s">
+      <c r="O224" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="P224" s="1" t="s">
         <v>2486</v>
-      </c>
-      <c r="O224" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="P224" s="1" t="s">
-        <v>2487</v>
       </c>
       <c r="Q224" s="3">
         <v>13756</v>
@@ -48666,13 +48603,13 @@
         <v>111</v>
       </c>
       <c r="BH224" s="1" t="s">
-        <v>2488</v>
+        <v>2487</v>
       </c>
       <c r="BM224" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BT224" s="1" t="s">
-        <v>2489</v>
+        <v>2488</v>
       </c>
       <c r="BU224" s="1" t="s">
         <v>118</v>
@@ -48693,10 +48630,10 @@
         <v>107</v>
       </c>
       <c r="CC224" s="1" t="s">
-        <v>2342</v>
+        <v>2341</v>
       </c>
       <c r="CD224" s="1" t="s">
-        <v>2490</v>
+        <v>2489</v>
       </c>
       <c r="CE224" s="1" t="s">
         <v>205</v>
@@ -48734,19 +48671,19 @@
         <v>162</v>
       </c>
       <c r="K225" s="1" t="s">
+        <v>2490</v>
+      </c>
+      <c r="L225" s="1" t="s">
         <v>2491</v>
       </c>
-      <c r="L225" s="1" t="s">
+      <c r="N225" s="1" t="s">
         <v>2492</v>
       </c>
-      <c r="N225" s="1" t="s">
+      <c r="O225" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="P225" s="1" t="s">
         <v>2493</v>
-      </c>
-      <c r="O225" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="P225" s="1" t="s">
-        <v>2494</v>
       </c>
       <c r="Q225" s="3">
         <v>26074</v>
@@ -48794,7 +48731,7 @@
         <v>0</v>
       </c>
       <c r="AN225" s="1" t="s">
-        <v>2354</v>
+        <v>2353</v>
       </c>
       <c r="AO225" s="1">
         <v>0</v>
@@ -48839,13 +48776,13 @@
         <v>111</v>
       </c>
       <c r="BH225" s="1" t="s">
-        <v>2470</v>
+        <v>2469</v>
       </c>
       <c r="BM225" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BT225" s="1" t="s">
-        <v>2495</v>
+        <v>2494</v>
       </c>
       <c r="BU225" s="1" t="s">
         <v>118</v>
@@ -48869,13 +48806,13 @@
         <v>107</v>
       </c>
       <c r="CC225" s="1" t="s">
-        <v>2496</v>
+        <v>2495</v>
       </c>
       <c r="CD225" s="1" t="s">
         <v>1227</v>
       </c>
       <c r="CE225" s="1" t="s">
-        <v>2497</v>
+        <v>2496</v>
       </c>
     </row>
     <row r="226" spans="1:83" x14ac:dyDescent="0.25">
@@ -48910,19 +48847,19 @@
         <v>162</v>
       </c>
       <c r="K226" s="1" t="s">
+        <v>2497</v>
+      </c>
+      <c r="L226" s="1" t="s">
         <v>2498</v>
       </c>
-      <c r="L226" s="1" t="s">
+      <c r="N226" s="1" t="s">
         <v>2499</v>
       </c>
-      <c r="N226" s="1" t="s">
+      <c r="O226" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="P226" s="1" t="s">
         <v>2500</v>
-      </c>
-      <c r="O226" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="P226" s="1" t="s">
-        <v>2501</v>
       </c>
       <c r="Q226" s="3">
         <v>28808</v>
@@ -48967,7 +48904,7 @@
         <v>0</v>
       </c>
       <c r="AN226" s="1" t="s">
-        <v>2502</v>
+        <v>2501</v>
       </c>
       <c r="AO226" s="1">
         <v>0</v>
@@ -49012,13 +48949,13 @@
         <v>111</v>
       </c>
       <c r="BH226" s="1" t="s">
-        <v>2503</v>
+        <v>2502</v>
       </c>
       <c r="BM226" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BT226" s="1" t="s">
-        <v>2504</v>
+        <v>2503</v>
       </c>
       <c r="BU226" s="1" t="s">
         <v>118</v>
@@ -49039,13 +48976,13 @@
         <v>107</v>
       </c>
       <c r="CC226" s="1" t="s">
+        <v>2504</v>
+      </c>
+      <c r="CD226" s="1" t="s">
+        <v>2412</v>
+      </c>
+      <c r="CE226" s="1" t="s">
         <v>2505</v>
-      </c>
-      <c r="CD226" s="1" t="s">
-        <v>2413</v>
-      </c>
-      <c r="CE226" s="1" t="s">
-        <v>2506</v>
       </c>
     </row>
     <row r="227" spans="1:83" x14ac:dyDescent="0.25">
@@ -49080,10 +49017,10 @@
         <v>93</v>
       </c>
       <c r="K227" s="1" t="s">
+        <v>2506</v>
+      </c>
+      <c r="L227" s="1" t="s">
         <v>2507</v>
-      </c>
-      <c r="L227" s="1" t="s">
-        <v>2508</v>
       </c>
       <c r="O227" s="1" t="s">
         <v>229</v>
@@ -49149,7 +49086,7 @@
         <v>16</v>
       </c>
       <c r="BD227" s="1" t="s">
-        <v>2509</v>
+        <v>2508</v>
       </c>
       <c r="BX227" s="1">
         <v>0</v>
@@ -49167,7 +49104,7 @@
         <v>233</v>
       </c>
       <c r="CE227" s="1" t="s">
-        <v>2508</v>
+        <v>2507</v>
       </c>
     </row>
     <row r="228" spans="1:83" x14ac:dyDescent="0.25">
@@ -49196,16 +49133,16 @@
         <v>91</v>
       </c>
       <c r="I228" s="1" t="s">
-        <v>2510</v>
+        <v>2509</v>
       </c>
       <c r="J228" s="1" t="s">
         <v>93</v>
       </c>
       <c r="K228" s="1" t="s">
+        <v>2510</v>
+      </c>
+      <c r="L228" s="1" t="s">
         <v>2511</v>
-      </c>
-      <c r="L228" s="1" t="s">
-        <v>2512</v>
       </c>
       <c r="O228" s="1" t="s">
         <v>229</v>
@@ -49274,7 +49211,7 @@
         <v>0</v>
       </c>
       <c r="BZ228" s="1" t="s">
-        <v>2513</v>
+        <v>2512</v>
       </c>
       <c r="CA228" s="1" t="s">
         <v>120</v>
@@ -49286,7 +49223,7 @@
         <v>233</v>
       </c>
       <c r="CE228" s="1" t="s">
-        <v>2512</v>
+        <v>2511</v>
       </c>
     </row>
     <row r="229" spans="1:83" x14ac:dyDescent="0.25">
@@ -49321,19 +49258,19 @@
         <v>93</v>
       </c>
       <c r="K229" s="1" t="s">
+        <v>2513</v>
+      </c>
+      <c r="L229" s="1" t="s">
         <v>2514</v>
       </c>
-      <c r="L229" s="1" t="s">
+      <c r="N229" s="1" t="s">
         <v>2515</v>
       </c>
-      <c r="N229" s="1" t="s">
+      <c r="O229" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="P229" s="1" t="s">
         <v>2516</v>
-      </c>
-      <c r="O229" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="P229" s="1" t="s">
-        <v>2517</v>
       </c>
       <c r="Q229" s="3">
         <v>28642</v>
@@ -49405,7 +49342,7 @@
         <v>107</v>
       </c>
       <c r="AZ229" s="1" t="s">
-        <v>2518</v>
+        <v>2517</v>
       </c>
       <c r="BB229" s="1">
         <v>6</v>
@@ -49423,7 +49360,7 @@
         <v>111</v>
       </c>
       <c r="BH229" s="1" t="s">
-        <v>2519</v>
+        <v>2518</v>
       </c>
       <c r="BI229" s="1" t="s">
         <v>1112</v>
@@ -49438,7 +49375,7 @@
         <v>155</v>
       </c>
       <c r="BT229" s="1" t="s">
-        <v>2520</v>
+        <v>2519</v>
       </c>
       <c r="BU229" s="1" t="s">
         <v>118</v>
@@ -49456,13 +49393,13 @@
         <v>107</v>
       </c>
       <c r="CC229" s="1" t="s">
-        <v>2521</v>
+        <v>2520</v>
       </c>
       <c r="CD229" s="1" t="s">
         <v>453</v>
       </c>
       <c r="CE229" s="1" t="s">
-        <v>2522</v>
+        <v>2521</v>
       </c>
     </row>
     <row r="230" spans="1:83" x14ac:dyDescent="0.25">
@@ -49497,19 +49434,19 @@
         <v>93</v>
       </c>
       <c r="K230" s="1" t="s">
+        <v>2522</v>
+      </c>
+      <c r="L230" s="1" t="s">
         <v>2523</v>
       </c>
-      <c r="L230" s="1" t="s">
+      <c r="N230" s="1" t="s">
         <v>2524</v>
       </c>
-      <c r="N230" s="1" t="s">
+      <c r="O230" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="P230" s="1" t="s">
         <v>2525</v>
-      </c>
-      <c r="O230" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="P230" s="1" t="s">
-        <v>2526</v>
       </c>
       <c r="Q230" s="3">
         <v>28239</v>
@@ -49578,7 +49515,7 @@
         <v>107</v>
       </c>
       <c r="AZ230" s="1" t="s">
-        <v>2527</v>
+        <v>2526</v>
       </c>
       <c r="BB230" s="1">
         <v>6</v>
@@ -49596,10 +49533,10 @@
         <v>111</v>
       </c>
       <c r="BH230" s="1" t="s">
+        <v>2527</v>
+      </c>
+      <c r="BI230" s="1" t="s">
         <v>2528</v>
-      </c>
-      <c r="BI230" s="1" t="s">
-        <v>2529</v>
       </c>
       <c r="BM230" s="1" t="s">
         <v>114</v>
@@ -49611,13 +49548,13 @@
         <v>218</v>
       </c>
       <c r="BR230" s="1" t="s">
-        <v>2530</v>
+        <v>2529</v>
       </c>
       <c r="BS230" s="3">
         <v>36099</v>
       </c>
       <c r="BT230" s="1" t="s">
-        <v>2531</v>
+        <v>2530</v>
       </c>
       <c r="BU230" s="1" t="s">
         <v>118</v>
@@ -49635,13 +49572,13 @@
         <v>107</v>
       </c>
       <c r="CC230" s="1" t="s">
+        <v>2531</v>
+      </c>
+      <c r="CD230" s="1" t="s">
         <v>2532</v>
       </c>
-      <c r="CD230" s="1" t="s">
+      <c r="CE230" s="1" t="s">
         <v>2533</v>
-      </c>
-      <c r="CE230" s="1" t="s">
-        <v>2534</v>
       </c>
     </row>
     <row r="231" spans="1:83" x14ac:dyDescent="0.25">
@@ -49676,19 +49613,19 @@
         <v>93</v>
       </c>
       <c r="K231" s="1" t="s">
+        <v>2534</v>
+      </c>
+      <c r="L231" s="1" t="s">
         <v>2535</v>
       </c>
-      <c r="L231" s="1" t="s">
+      <c r="N231" s="1" t="s">
         <v>2536</v>
       </c>
-      <c r="N231" s="1" t="s">
+      <c r="O231" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="P231" s="1" t="s">
         <v>2537</v>
-      </c>
-      <c r="O231" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="P231" s="1" t="s">
-        <v>2538</v>
       </c>
       <c r="Q231" s="3">
         <v>25589</v>
@@ -49757,7 +49694,7 @@
         <v>107</v>
       </c>
       <c r="AZ231" s="1" t="s">
-        <v>2539</v>
+        <v>2538</v>
       </c>
       <c r="BB231" s="1">
         <v>6</v>
@@ -49775,10 +49712,10 @@
         <v>111</v>
       </c>
       <c r="BH231" s="1" t="s">
+        <v>2539</v>
+      </c>
+      <c r="BI231" s="1" t="s">
         <v>2540</v>
-      </c>
-      <c r="BI231" s="1" t="s">
-        <v>2541</v>
       </c>
       <c r="BM231" s="1" t="s">
         <v>114</v>
@@ -49790,13 +49727,13 @@
         <v>99</v>
       </c>
       <c r="BR231" s="1" t="s">
-        <v>2542</v>
+        <v>2541</v>
       </c>
       <c r="BS231" s="3">
         <v>37735</v>
       </c>
       <c r="BT231" s="1" t="s">
-        <v>2543</v>
+        <v>2542</v>
       </c>
       <c r="BU231" s="1" t="s">
         <v>118</v>
@@ -49814,13 +49751,13 @@
         <v>107</v>
       </c>
       <c r="CC231" s="1" t="s">
+        <v>2543</v>
+      </c>
+      <c r="CD231" s="1" t="s">
         <v>2544</v>
       </c>
-      <c r="CD231" s="1" t="s">
+      <c r="CE231" s="1" t="s">
         <v>2545</v>
-      </c>
-      <c r="CE231" s="1" t="s">
-        <v>2546</v>
       </c>
     </row>
     <row r="232" spans="1:83" x14ac:dyDescent="0.25">
@@ -49855,19 +49792,19 @@
         <v>93</v>
       </c>
       <c r="K232" s="1" t="s">
+        <v>2546</v>
+      </c>
+      <c r="L232" s="1" t="s">
         <v>2547</v>
       </c>
-      <c r="L232" s="1" t="s">
+      <c r="N232" s="1" t="s">
         <v>2548</v>
       </c>
-      <c r="N232" s="1" t="s">
+      <c r="O232" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="P232" s="1" t="s">
         <v>2549</v>
-      </c>
-      <c r="O232" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="P232" s="1" t="s">
-        <v>2550</v>
       </c>
       <c r="Q232" s="3">
         <v>29170</v>
@@ -49939,7 +49876,7 @@
         <v>107</v>
       </c>
       <c r="AZ232" s="1" t="s">
-        <v>2551</v>
+        <v>2550</v>
       </c>
       <c r="BB232" s="1">
         <v>6</v>
@@ -49957,7 +49894,7 @@
         <v>111</v>
       </c>
       <c r="BH232" s="1" t="s">
-        <v>2552</v>
+        <v>2551</v>
       </c>
       <c r="BI232" s="1" t="s">
         <v>1112</v>
@@ -49969,7 +49906,7 @@
         <v>102</v>
       </c>
       <c r="BT232" s="1" t="s">
-        <v>2553</v>
+        <v>2552</v>
       </c>
       <c r="BU232" s="1" t="s">
         <v>118</v>
@@ -49987,13 +49924,13 @@
         <v>107</v>
       </c>
       <c r="CC232" s="1" t="s">
-        <v>2554</v>
+        <v>2553</v>
       </c>
       <c r="CD232" s="1" t="s">
         <v>874</v>
       </c>
       <c r="CE232" s="1" t="s">
-        <v>2555</v>
+        <v>2554</v>
       </c>
     </row>
     <row r="233" spans="1:83" x14ac:dyDescent="0.25">
@@ -50028,19 +49965,19 @@
         <v>93</v>
       </c>
       <c r="K233" s="1" t="s">
+        <v>2555</v>
+      </c>
+      <c r="L233" s="1" t="s">
         <v>2556</v>
       </c>
-      <c r="L233" s="1" t="s">
+      <c r="N233" s="1" t="s">
         <v>2557</v>
       </c>
-      <c r="N233" s="1" t="s">
+      <c r="O233" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="P233" s="1" t="s">
         <v>2558</v>
-      </c>
-      <c r="O233" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="P233" s="1" t="s">
-        <v>2559</v>
       </c>
       <c r="Q233" s="3">
         <v>27250</v>
@@ -50067,7 +50004,7 @@
         <v>103</v>
       </c>
       <c r="AG233" s="1" t="s">
-        <v>2560</v>
+        <v>2559</v>
       </c>
       <c r="AH233" s="1" t="s">
         <v>1873</v>
@@ -50112,7 +50049,7 @@
         <v>107</v>
       </c>
       <c r="AZ233" s="1" t="s">
-        <v>2561</v>
+        <v>2560</v>
       </c>
       <c r="BB233" s="1">
         <v>6</v>
@@ -50130,7 +50067,7 @@
         <v>111</v>
       </c>
       <c r="BH233" s="1" t="s">
-        <v>2562</v>
+        <v>2561</v>
       </c>
       <c r="BI233" s="1" t="s">
         <v>1803</v>
@@ -50142,7 +50079,7 @@
         <v>102</v>
       </c>
       <c r="BT233" s="1" t="s">
-        <v>2563</v>
+        <v>2562</v>
       </c>
       <c r="BU233" s="1" t="s">
         <v>118</v>
@@ -50163,10 +50100,10 @@
         <v>1569</v>
       </c>
       <c r="CD233" s="1" t="s">
+        <v>2563</v>
+      </c>
+      <c r="CE233" s="1" t="s">
         <v>2564</v>
-      </c>
-      <c r="CE233" s="1" t="s">
-        <v>2565</v>
       </c>
     </row>
     <row r="234" spans="1:83" x14ac:dyDescent="0.25">
@@ -50201,19 +50138,19 @@
         <v>93</v>
       </c>
       <c r="K234" s="1" t="s">
+        <v>2565</v>
+      </c>
+      <c r="L234" s="1" t="s">
         <v>2566</v>
       </c>
-      <c r="L234" s="1" t="s">
+      <c r="N234" s="1" t="s">
         <v>2567</v>
       </c>
-      <c r="N234" s="1" t="s">
+      <c r="O234" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="P234" s="1" t="s">
         <v>2568</v>
-      </c>
-      <c r="O234" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="P234" s="1" t="s">
-        <v>2569</v>
       </c>
       <c r="Q234" s="3">
         <v>27999</v>
@@ -50285,7 +50222,7 @@
         <v>107</v>
       </c>
       <c r="AZ234" s="1" t="s">
-        <v>2570</v>
+        <v>2569</v>
       </c>
       <c r="BB234" s="1">
         <v>6</v>
@@ -50303,10 +50240,10 @@
         <v>111</v>
       </c>
       <c r="BH234" s="1" t="s">
+        <v>2570</v>
+      </c>
+      <c r="BI234" s="1" t="s">
         <v>2571</v>
-      </c>
-      <c r="BI234" s="1" t="s">
-        <v>2572</v>
       </c>
       <c r="BM234" s="1" t="s">
         <v>114</v>
@@ -50315,7 +50252,7 @@
         <v>102</v>
       </c>
       <c r="BT234" s="1" t="s">
-        <v>2573</v>
+        <v>2572</v>
       </c>
       <c r="BU234" s="1" t="s">
         <v>118</v>
@@ -50339,7 +50276,7 @@
         <v>953</v>
       </c>
       <c r="CE234" s="1" t="s">
-        <v>2574</v>
+        <v>2573</v>
       </c>
     </row>
     <row r="235" spans="1:83" x14ac:dyDescent="0.25">
@@ -50374,19 +50311,19 @@
         <v>93</v>
       </c>
       <c r="K235" s="1" t="s">
+        <v>2574</v>
+      </c>
+      <c r="L235" s="1" t="s">
         <v>2575</v>
       </c>
-      <c r="L235" s="1" t="s">
+      <c r="N235" s="1" t="s">
         <v>2576</v>
       </c>
-      <c r="N235" s="1" t="s">
+      <c r="O235" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="P235" s="1" t="s">
         <v>2577</v>
-      </c>
-      <c r="O235" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="P235" s="1" t="s">
-        <v>2578</v>
       </c>
       <c r="Q235" s="3">
         <v>29305</v>
@@ -50458,7 +50395,7 @@
         <v>107</v>
       </c>
       <c r="AZ235" s="1" t="s">
-        <v>2579</v>
+        <v>2578</v>
       </c>
       <c r="BB235" s="1">
         <v>6</v>
@@ -50476,7 +50413,7 @@
         <v>111</v>
       </c>
       <c r="BH235" s="1" t="s">
-        <v>2580</v>
+        <v>2579</v>
       </c>
       <c r="BI235" s="1" t="s">
         <v>927</v>
@@ -50488,7 +50425,7 @@
         <v>102</v>
       </c>
       <c r="BT235" s="1" t="s">
-        <v>2581</v>
+        <v>2580</v>
       </c>
       <c r="BU235" s="1" t="s">
         <v>118</v>
@@ -50506,13 +50443,13 @@
         <v>107</v>
       </c>
       <c r="CC235" s="1" t="s">
+        <v>2581</v>
+      </c>
+      <c r="CD235" s="1" t="s">
         <v>2582</v>
       </c>
-      <c r="CD235" s="1" t="s">
+      <c r="CE235" s="1" t="s">
         <v>2583</v>
-      </c>
-      <c r="CE235" s="1" t="s">
-        <v>2584</v>
       </c>
     </row>
     <row r="236" spans="1:83" x14ac:dyDescent="0.25">
@@ -50547,19 +50484,19 @@
         <v>162</v>
       </c>
       <c r="K236" s="1" t="s">
+        <v>2584</v>
+      </c>
+      <c r="L236" s="1" t="s">
         <v>2585</v>
       </c>
-      <c r="L236" s="1" t="s">
+      <c r="N236" s="1" t="s">
         <v>2586</v>
       </c>
-      <c r="N236" s="1" t="s">
+      <c r="O236" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="P236" s="1" t="s">
         <v>2587</v>
-      </c>
-      <c r="O236" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="P236" s="1" t="s">
-        <v>2588</v>
       </c>
       <c r="R236" s="1" t="s">
         <v>131</v>
@@ -50595,7 +50532,7 @@
         <v>0</v>
       </c>
       <c r="AN236" s="1" t="s">
-        <v>2589</v>
+        <v>2588</v>
       </c>
       <c r="AO236" s="1">
         <v>0</v>
@@ -50634,13 +50571,13 @@
         <v>111</v>
       </c>
       <c r="BH236" s="1" t="s">
-        <v>2590</v>
+        <v>2589</v>
       </c>
       <c r="BM236" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BT236" s="1" t="s">
-        <v>2591</v>
+        <v>2590</v>
       </c>
       <c r="BU236" s="1" t="s">
         <v>118</v>
@@ -50658,13 +50595,13 @@
         <v>107</v>
       </c>
       <c r="CC236" s="1" t="s">
-        <v>2592</v>
+        <v>2591</v>
       </c>
       <c r="CD236" s="1" t="s">
         <v>315</v>
       </c>
       <c r="CE236" s="1" t="s">
-        <v>2593</v>
+        <v>2592</v>
       </c>
     </row>
     <row r="237" spans="1:83" x14ac:dyDescent="0.25">
@@ -50699,19 +50636,19 @@
         <v>93</v>
       </c>
       <c r="K237" s="1" t="s">
+        <v>2593</v>
+      </c>
+      <c r="L237" s="1" t="s">
         <v>2594</v>
       </c>
-      <c r="L237" s="1" t="s">
+      <c r="N237" s="1" t="s">
         <v>2595</v>
       </c>
-      <c r="N237" s="1" t="s">
+      <c r="O237" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="P237" s="1" t="s">
         <v>2596</v>
-      </c>
-      <c r="O237" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="P237" s="1" t="s">
-        <v>2597</v>
       </c>
       <c r="Q237" s="3">
         <v>23125</v>
@@ -50744,7 +50681,7 @@
         <v>42247</v>
       </c>
       <c r="AD237" s="1" t="s">
-        <v>2598</v>
+        <v>2597</v>
       </c>
       <c r="AF237" s="1" t="s">
         <v>103</v>
@@ -50798,7 +50735,7 @@
         <v>18</v>
       </c>
       <c r="BD237" s="1" t="s">
-        <v>2509</v>
+        <v>2508</v>
       </c>
       <c r="BE237" s="1" t="s">
         <v>109</v>
@@ -50810,10 +50747,10 @@
         <v>111</v>
       </c>
       <c r="BH237" s="1" t="s">
+        <v>2598</v>
+      </c>
+      <c r="BI237" s="1" t="s">
         <v>2599</v>
-      </c>
-      <c r="BI237" s="1" t="s">
-        <v>2600</v>
       </c>
       <c r="BM237" s="1" t="s">
         <v>114</v>
@@ -50825,13 +50762,13 @@
         <v>218</v>
       </c>
       <c r="BR237" s="1" t="s">
-        <v>2601</v>
+        <v>2600</v>
       </c>
       <c r="BS237" s="3">
         <v>36580</v>
       </c>
       <c r="BT237" s="1" t="s">
-        <v>2602</v>
+        <v>2601</v>
       </c>
       <c r="BU237" s="1" t="s">
         <v>118</v>
@@ -50852,7 +50789,7 @@
         <v>107</v>
       </c>
       <c r="CC237" s="1" t="s">
-        <v>2603</v>
+        <v>2602</v>
       </c>
       <c r="CD237" s="1" t="s">
         <v>304</v>
@@ -50893,19 +50830,19 @@
         <v>93</v>
       </c>
       <c r="K238" s="1" t="s">
+        <v>2603</v>
+      </c>
+      <c r="L238" s="1" t="s">
         <v>2604</v>
       </c>
-      <c r="L238" s="1" t="s">
+      <c r="N238" s="1" t="s">
         <v>2605</v>
       </c>
-      <c r="N238" s="1" t="s">
+      <c r="O238" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="P238" s="1" t="s">
         <v>2606</v>
-      </c>
-      <c r="O238" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="P238" s="1" t="s">
-        <v>2607</v>
       </c>
       <c r="Q238" s="3">
         <v>30023</v>
@@ -50992,10 +50929,10 @@
         <v>111</v>
       </c>
       <c r="BH238" s="1" t="s">
+        <v>2607</v>
+      </c>
+      <c r="BI238" s="1" t="s">
         <v>2608</v>
-      </c>
-      <c r="BI238" s="1" t="s">
-        <v>2609</v>
       </c>
       <c r="BM238" s="1" t="s">
         <v>114</v>
@@ -51007,13 +50944,13 @@
         <v>115</v>
       </c>
       <c r="BR238" s="1" t="s">
-        <v>2610</v>
+        <v>2609</v>
       </c>
       <c r="BS238" s="3">
         <v>37747</v>
       </c>
       <c r="BT238" s="1" t="s">
-        <v>2611</v>
+        <v>2610</v>
       </c>
       <c r="BU238" s="1" t="s">
         <v>118</v>
@@ -51037,7 +50974,7 @@
         <v>680</v>
       </c>
       <c r="CE238" s="1" t="s">
-        <v>2612</v>
+        <v>2611</v>
       </c>
     </row>
     <row r="239" spans="1:83" x14ac:dyDescent="0.25">
@@ -51072,19 +51009,19 @@
         <v>93</v>
       </c>
       <c r="K239" s="1" t="s">
+        <v>2612</v>
+      </c>
+      <c r="L239" s="1" t="s">
         <v>2613</v>
       </c>
-      <c r="L239" s="1" t="s">
+      <c r="N239" s="1" t="s">
         <v>2614</v>
       </c>
-      <c r="N239" s="1" t="s">
+      <c r="O239" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="P239" s="1" t="s">
         <v>2615</v>
-      </c>
-      <c r="O239" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="P239" s="1" t="s">
-        <v>2616</v>
       </c>
       <c r="Q239" s="3">
         <v>26205</v>
@@ -51171,7 +51108,7 @@
         <v>111</v>
       </c>
       <c r="BH239" s="1" t="s">
-        <v>2617</v>
+        <v>2616</v>
       </c>
       <c r="BM239" s="1" t="s">
         <v>114</v>
@@ -51180,7 +51117,7 @@
         <v>102</v>
       </c>
       <c r="BT239" s="1" t="s">
-        <v>2618</v>
+        <v>2617</v>
       </c>
       <c r="BU239" s="1" t="s">
         <v>118</v>
@@ -51198,13 +51135,13 @@
         <v>107</v>
       </c>
       <c r="CC239" s="1" t="s">
+        <v>2618</v>
+      </c>
+      <c r="CD239" s="1" t="s">
         <v>2619</v>
       </c>
-      <c r="CD239" s="1" t="s">
+      <c r="CE239" s="1" t="s">
         <v>2620</v>
-      </c>
-      <c r="CE239" s="1" t="s">
-        <v>2621</v>
       </c>
     </row>
     <row r="240" spans="1:83" x14ac:dyDescent="0.25">
@@ -51239,19 +51176,19 @@
         <v>93</v>
       </c>
       <c r="K240" s="1" t="s">
+        <v>2621</v>
+      </c>
+      <c r="L240" s="1" t="s">
         <v>2622</v>
       </c>
-      <c r="L240" s="1" t="s">
+      <c r="N240" s="1" t="s">
         <v>2623</v>
       </c>
-      <c r="N240" s="1" t="s">
+      <c r="O240" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="P240" s="1" t="s">
         <v>2624</v>
-      </c>
-      <c r="O240" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="P240" s="1" t="s">
-        <v>2625</v>
       </c>
       <c r="Q240" s="3">
         <v>31662</v>
@@ -51338,7 +51275,7 @@
         <v>111</v>
       </c>
       <c r="BH240" s="1" t="s">
-        <v>2626</v>
+        <v>2625</v>
       </c>
       <c r="BI240" s="1" t="s">
         <v>927</v>
@@ -51350,7 +51287,7 @@
         <v>102</v>
       </c>
       <c r="BT240" s="1" t="s">
-        <v>2627</v>
+        <v>2626</v>
       </c>
       <c r="BU240" s="1" t="s">
         <v>118</v>
@@ -51368,13 +51305,13 @@
         <v>107</v>
       </c>
       <c r="CC240" s="1" t="s">
+        <v>2627</v>
+      </c>
+      <c r="CD240" s="1" t="s">
         <v>2628</v>
       </c>
-      <c r="CD240" s="1" t="s">
+      <c r="CE240" s="1" t="s">
         <v>2629</v>
-      </c>
-      <c r="CE240" s="1" t="s">
-        <v>2630</v>
       </c>
     </row>
     <row r="241" spans="1:83" x14ac:dyDescent="0.25">
@@ -51409,19 +51346,19 @@
         <v>93</v>
       </c>
       <c r="K241" s="1" t="s">
+        <v>2630</v>
+      </c>
+      <c r="L241" s="1" t="s">
         <v>2631</v>
       </c>
-      <c r="L241" s="1" t="s">
+      <c r="N241" s="1" t="s">
         <v>2632</v>
       </c>
-      <c r="N241" s="1" t="s">
+      <c r="O241" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="P241" s="1" t="s">
         <v>2633</v>
-      </c>
-      <c r="O241" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="P241" s="1" t="s">
-        <v>2634</v>
       </c>
       <c r="Q241" s="3">
         <v>29117</v>
@@ -51508,10 +51445,10 @@
         <v>111</v>
       </c>
       <c r="BH241" s="1" t="s">
+        <v>2634</v>
+      </c>
+      <c r="BI241" s="1" t="s">
         <v>2635</v>
-      </c>
-      <c r="BI241" s="1" t="s">
-        <v>2636</v>
       </c>
       <c r="BM241" s="1" t="s">
         <v>114</v>
@@ -51523,13 +51460,13 @@
         <v>99</v>
       </c>
       <c r="BR241" s="1" t="s">
-        <v>2637</v>
+        <v>2636</v>
       </c>
       <c r="BS241" s="3">
         <v>37334</v>
       </c>
       <c r="BT241" s="1" t="s">
-        <v>2638</v>
+        <v>2637</v>
       </c>
       <c r="BU241" s="1" t="s">
         <v>118</v>
@@ -51550,10 +51487,10 @@
         <v>544</v>
       </c>
       <c r="CD241" s="1" t="s">
+        <v>2638</v>
+      </c>
+      <c r="CE241" s="1" t="s">
         <v>2639</v>
-      </c>
-      <c r="CE241" s="1" t="s">
-        <v>2640</v>
       </c>
     </row>
     <row r="242" spans="1:83" x14ac:dyDescent="0.25">
@@ -51588,19 +51525,19 @@
         <v>93</v>
       </c>
       <c r="K242" s="1" t="s">
+        <v>2640</v>
+      </c>
+      <c r="L242" s="1" t="s">
         <v>2641</v>
       </c>
-      <c r="L242" s="1" t="s">
+      <c r="N242" s="1" t="s">
         <v>2642</v>
       </c>
-      <c r="N242" s="1" t="s">
+      <c r="O242" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="P242" s="1" t="s">
         <v>2643</v>
-      </c>
-      <c r="O242" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="P242" s="1" t="s">
-        <v>2644</v>
       </c>
       <c r="Q242" s="3">
         <v>30007</v>
@@ -51687,10 +51624,10 @@
         <v>111</v>
       </c>
       <c r="BH242" s="1" t="s">
+        <v>2644</v>
+      </c>
+      <c r="BI242" s="1" t="s">
         <v>2645</v>
-      </c>
-      <c r="BI242" s="1" t="s">
-        <v>2646</v>
       </c>
       <c r="BM242" s="1" t="s">
         <v>114</v>
@@ -51702,13 +51639,13 @@
         <v>99</v>
       </c>
       <c r="BR242" s="1" t="s">
-        <v>2647</v>
+        <v>2646</v>
       </c>
       <c r="BS242" s="3">
         <v>37904</v>
       </c>
       <c r="BT242" s="1" t="s">
-        <v>2648</v>
+        <v>2647</v>
       </c>
       <c r="BU242" s="1" t="s">
         <v>118</v>
@@ -51729,10 +51666,10 @@
         <v>953</v>
       </c>
       <c r="CD242" s="1" t="s">
+        <v>2648</v>
+      </c>
+      <c r="CE242" s="1" t="s">
         <v>2649</v>
-      </c>
-      <c r="CE242" s="1" t="s">
-        <v>2650</v>
       </c>
     </row>
     <row r="243" spans="1:83" x14ac:dyDescent="0.25">
@@ -51767,19 +51704,19 @@
         <v>93</v>
       </c>
       <c r="K243" s="1" t="s">
+        <v>2650</v>
+      </c>
+      <c r="L243" s="1" t="s">
         <v>2651</v>
       </c>
-      <c r="L243" s="1" t="s">
+      <c r="N243" s="1" t="s">
         <v>2652</v>
       </c>
-      <c r="N243" s="1" t="s">
+      <c r="O243" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="P243" s="1" t="s">
         <v>2653</v>
-      </c>
-      <c r="O243" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="P243" s="1" t="s">
-        <v>2654</v>
       </c>
       <c r="Q243" s="3">
         <v>26221</v>
@@ -51863,7 +51800,7 @@
         <v>111</v>
       </c>
       <c r="BH243" s="1" t="s">
-        <v>2655</v>
+        <v>2654</v>
       </c>
       <c r="BI243" s="1" t="s">
         <v>1112</v>
@@ -51878,13 +51815,13 @@
         <v>115</v>
       </c>
       <c r="BR243" s="1" t="s">
-        <v>2656</v>
+        <v>2655</v>
       </c>
       <c r="BS243" s="3">
         <v>36111</v>
       </c>
       <c r="BT243" s="1" t="s">
-        <v>2657</v>
+        <v>2656</v>
       </c>
       <c r="BU243" s="1" t="s">
         <v>118</v>
@@ -51902,13 +51839,13 @@
         <v>107</v>
       </c>
       <c r="CC243" s="1" t="s">
-        <v>2658</v>
+        <v>2657</v>
       </c>
       <c r="CD243" s="1" t="s">
         <v>1126</v>
       </c>
       <c r="CE243" s="1" t="s">
-        <v>2659</v>
+        <v>2658</v>
       </c>
     </row>
     <row r="244" spans="1:83" x14ac:dyDescent="0.25">
@@ -51943,19 +51880,19 @@
         <v>93</v>
       </c>
       <c r="K244" s="1" t="s">
+        <v>2659</v>
+      </c>
+      <c r="L244" s="1" t="s">
         <v>2660</v>
       </c>
-      <c r="L244" s="1" t="s">
+      <c r="N244" s="1" t="s">
         <v>2661</v>
       </c>
-      <c r="N244" s="1" t="s">
+      <c r="O244" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="P244" s="1" t="s">
         <v>2662</v>
-      </c>
-      <c r="O244" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="P244" s="1" t="s">
-        <v>2663</v>
       </c>
       <c r="Q244" s="3">
         <v>27571</v>
@@ -52042,7 +51979,7 @@
         <v>111</v>
       </c>
       <c r="BH244" s="1" t="s">
-        <v>2664</v>
+        <v>2663</v>
       </c>
       <c r="BI244" s="1" t="s">
         <v>843</v>
@@ -52057,13 +51994,13 @@
         <v>115</v>
       </c>
       <c r="BR244" s="1" t="s">
-        <v>2665</v>
+        <v>2664</v>
       </c>
       <c r="BS244" s="3">
         <v>37785</v>
       </c>
       <c r="BT244" s="1" t="s">
-        <v>2666</v>
+        <v>2665</v>
       </c>
       <c r="BU244" s="1" t="s">
         <v>118</v>
@@ -52081,13 +52018,13 @@
         <v>107</v>
       </c>
       <c r="CC244" s="1" t="s">
+        <v>2666</v>
+      </c>
+      <c r="CD244" s="1" t="s">
         <v>2667</v>
       </c>
-      <c r="CD244" s="1" t="s">
+      <c r="CE244" s="1" t="s">
         <v>2668</v>
-      </c>
-      <c r="CE244" s="1" t="s">
-        <v>2669</v>
       </c>
     </row>
     <row r="245" spans="1:83" x14ac:dyDescent="0.25">
@@ -52122,19 +52059,19 @@
         <v>93</v>
       </c>
       <c r="K245" s="1" t="s">
+        <v>2669</v>
+      </c>
+      <c r="L245" s="1" t="s">
         <v>2670</v>
       </c>
-      <c r="L245" s="1" t="s">
+      <c r="N245" s="1" t="s">
         <v>2671</v>
       </c>
-      <c r="N245" s="1" t="s">
+      <c r="O245" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="P245" s="1" t="s">
         <v>2672</v>
-      </c>
-      <c r="O245" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="P245" s="1" t="s">
-        <v>2673</v>
       </c>
       <c r="Q245" s="3">
         <v>30041</v>
@@ -52221,7 +52158,7 @@
         <v>111</v>
       </c>
       <c r="BH245" s="1" t="s">
-        <v>2674</v>
+        <v>2673</v>
       </c>
       <c r="BM245" s="1" t="s">
         <v>114</v>
@@ -52230,7 +52167,7 @@
         <v>102</v>
       </c>
       <c r="BT245" s="1" t="s">
-        <v>2675</v>
+        <v>2674</v>
       </c>
       <c r="BU245" s="1" t="s">
         <v>118</v>
@@ -52251,10 +52188,10 @@
         <v>1244</v>
       </c>
       <c r="CD245" s="1" t="s">
+        <v>2675</v>
+      </c>
+      <c r="CE245" s="1" t="s">
         <v>2676</v>
-      </c>
-      <c r="CE245" s="1" t="s">
-        <v>2677</v>
       </c>
     </row>
     <row r="246" spans="1:83" x14ac:dyDescent="0.25">
@@ -52289,19 +52226,19 @@
         <v>93</v>
       </c>
       <c r="K246" s="1" t="s">
+        <v>2677</v>
+      </c>
+      <c r="L246" s="1" t="s">
         <v>2678</v>
       </c>
-      <c r="L246" s="1" t="s">
+      <c r="N246" s="1" t="s">
         <v>2679</v>
       </c>
-      <c r="N246" s="1" t="s">
+      <c r="O246" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="P246" s="1" t="s">
         <v>2680</v>
-      </c>
-      <c r="O246" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="P246" s="1" t="s">
-        <v>2681</v>
       </c>
       <c r="Q246" s="3">
         <v>30993</v>
@@ -52373,7 +52310,7 @@
         <v>107</v>
       </c>
       <c r="AZ246" s="1" t="s">
-        <v>2682</v>
+        <v>2681</v>
       </c>
       <c r="BB246" s="1">
         <v>6</v>
@@ -52391,7 +52328,7 @@
         <v>111</v>
       </c>
       <c r="BH246" s="1" t="s">
-        <v>2683</v>
+        <v>2682</v>
       </c>
       <c r="BM246" s="1" t="s">
         <v>114</v>
@@ -52400,7 +52337,7 @@
         <v>102</v>
       </c>
       <c r="BT246" s="1" t="s">
-        <v>2684</v>
+        <v>2683</v>
       </c>
       <c r="BU246" s="1" t="s">
         <v>118</v>
@@ -52418,13 +52355,13 @@
         <v>107</v>
       </c>
       <c r="CC246" s="1" t="s">
+        <v>2684</v>
+      </c>
+      <c r="CD246" s="1" t="s">
         <v>2685</v>
       </c>
-      <c r="CD246" s="1" t="s">
+      <c r="CE246" s="1" t="s">
         <v>2686</v>
-      </c>
-      <c r="CE246" s="1" t="s">
-        <v>2687</v>
       </c>
     </row>
     <row r="247" spans="1:83" x14ac:dyDescent="0.25">
@@ -52459,19 +52396,19 @@
         <v>93</v>
       </c>
       <c r="K247" s="1" t="s">
+        <v>2687</v>
+      </c>
+      <c r="L247" s="1" t="s">
         <v>2688</v>
       </c>
-      <c r="L247" s="1" t="s">
+      <c r="N247" s="1" t="s">
         <v>2689</v>
       </c>
-      <c r="N247" s="1" t="s">
+      <c r="O247" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="P247" s="1" t="s">
         <v>2690</v>
-      </c>
-      <c r="O247" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="P247" s="1" t="s">
-        <v>2691</v>
       </c>
       <c r="Q247" s="3">
         <v>30065</v>
@@ -52543,7 +52480,7 @@
         <v>107</v>
       </c>
       <c r="AZ247" s="1" t="s">
-        <v>2692</v>
+        <v>2691</v>
       </c>
       <c r="BB247" s="1">
         <v>6</v>
@@ -52561,10 +52498,10 @@
         <v>111</v>
       </c>
       <c r="BH247" s="1" t="s">
+        <v>2692</v>
+      </c>
+      <c r="BI247" s="1" t="s">
         <v>2693</v>
-      </c>
-      <c r="BI247" s="1" t="s">
-        <v>2694</v>
       </c>
       <c r="BM247" s="1" t="s">
         <v>114</v>
@@ -52573,7 +52510,7 @@
         <v>102</v>
       </c>
       <c r="BT247" s="1" t="s">
-        <v>2695</v>
+        <v>2694</v>
       </c>
       <c r="BU247" s="1" t="s">
         <v>118</v>
@@ -52591,13 +52528,13 @@
         <v>107</v>
       </c>
       <c r="CC247" s="1" t="s">
-        <v>2363</v>
+        <v>2362</v>
       </c>
       <c r="CD247" s="1" t="s">
         <v>1104</v>
       </c>
       <c r="CE247" s="1" t="s">
-        <v>2696</v>
+        <v>2695</v>
       </c>
     </row>
     <row r="248" spans="1:83" x14ac:dyDescent="0.25">
@@ -52632,19 +52569,19 @@
         <v>93</v>
       </c>
       <c r="K248" s="1" t="s">
+        <v>2696</v>
+      </c>
+      <c r="L248" s="1" t="s">
         <v>2697</v>
       </c>
-      <c r="L248" s="1" t="s">
+      <c r="N248" s="1" t="s">
         <v>2698</v>
       </c>
-      <c r="N248" s="1" t="s">
+      <c r="O248" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="P248" s="1" t="s">
         <v>2699</v>
-      </c>
-      <c r="O248" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="P248" s="1" t="s">
-        <v>2700</v>
       </c>
       <c r="Q248" s="3">
         <v>30033</v>
@@ -52716,7 +52653,7 @@
         <v>107</v>
       </c>
       <c r="AZ248" s="1" t="s">
-        <v>2701</v>
+        <v>2700</v>
       </c>
       <c r="BB248" s="1">
         <v>6</v>
@@ -52734,7 +52671,7 @@
         <v>111</v>
       </c>
       <c r="BH248" s="1" t="s">
-        <v>2702</v>
+        <v>2701</v>
       </c>
       <c r="BM248" s="1" t="s">
         <v>114</v>
@@ -52743,7 +52680,7 @@
         <v>102</v>
       </c>
       <c r="BT248" s="1" t="s">
-        <v>2703</v>
+        <v>2702</v>
       </c>
       <c r="BU248" s="1" t="s">
         <v>118</v>
@@ -52764,10 +52701,10 @@
         <v>1104</v>
       </c>
       <c r="CD248" s="1" t="s">
+        <v>2703</v>
+      </c>
+      <c r="CE248" s="1" t="s">
         <v>2704</v>
-      </c>
-      <c r="CE248" s="1" t="s">
-        <v>2705</v>
       </c>
     </row>
     <row r="249" spans="1:83" x14ac:dyDescent="0.25">
@@ -52802,19 +52739,19 @@
         <v>93</v>
       </c>
       <c r="K249" s="1" t="s">
+        <v>2705</v>
+      </c>
+      <c r="L249" s="1" t="s">
         <v>2706</v>
       </c>
-      <c r="L249" s="1" t="s">
+      <c r="N249" s="1" t="s">
         <v>2707</v>
       </c>
-      <c r="N249" s="1" t="s">
+      <c r="O249" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="P249" s="1" t="s">
         <v>2708</v>
-      </c>
-      <c r="O249" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="P249" s="1" t="s">
-        <v>2709</v>
       </c>
       <c r="Q249" s="3">
         <v>29411</v>
@@ -52883,7 +52820,7 @@
         <v>107</v>
       </c>
       <c r="AZ249" s="1" t="s">
-        <v>2710</v>
+        <v>2709</v>
       </c>
       <c r="BB249" s="1">
         <v>6</v>
@@ -52904,10 +52841,10 @@
         <v>111</v>
       </c>
       <c r="BH249" s="1" t="s">
+        <v>2710</v>
+      </c>
+      <c r="BI249" s="1" t="s">
         <v>2711</v>
-      </c>
-      <c r="BI249" s="1" t="s">
-        <v>2712</v>
       </c>
       <c r="BM249" s="1" t="s">
         <v>114</v>
@@ -52919,13 +52856,13 @@
         <v>218</v>
       </c>
       <c r="BR249" s="1" t="s">
-        <v>2713</v>
+        <v>2712</v>
       </c>
       <c r="BS249" s="3">
         <v>37513</v>
       </c>
       <c r="BT249" s="1" t="s">
-        <v>2714</v>
+        <v>2713</v>
       </c>
       <c r="BU249" s="1" t="s">
         <v>118</v>
@@ -52943,13 +52880,13 @@
         <v>107</v>
       </c>
       <c r="CC249" s="1" t="s">
-        <v>2715</v>
+        <v>2714</v>
       </c>
       <c r="CD249" s="1" t="s">
         <v>122</v>
       </c>
       <c r="CE249" s="1" t="s">
-        <v>2716</v>
+        <v>2715</v>
       </c>
     </row>
     <row r="250" spans="1:83" x14ac:dyDescent="0.25">
@@ -52984,19 +52921,19 @@
         <v>93</v>
       </c>
       <c r="K250" s="1" t="s">
+        <v>2716</v>
+      </c>
+      <c r="L250" s="1" t="s">
         <v>2717</v>
       </c>
-      <c r="L250" s="1" t="s">
+      <c r="N250" s="1" t="s">
         <v>2718</v>
       </c>
-      <c r="N250" s="1" t="s">
+      <c r="O250" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="P250" s="1" t="s">
         <v>2719</v>
-      </c>
-      <c r="O250" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="P250" s="1" t="s">
-        <v>2720</v>
       </c>
       <c r="Q250" s="3">
         <v>32173</v>
@@ -53080,10 +53017,10 @@
         <v>111</v>
       </c>
       <c r="BH250" s="1" t="s">
+        <v>2720</v>
+      </c>
+      <c r="BI250" s="1" t="s">
         <v>2721</v>
-      </c>
-      <c r="BI250" s="1" t="s">
-        <v>2722</v>
       </c>
       <c r="BM250" s="1" t="s">
         <v>114</v>
@@ -53095,13 +53032,13 @@
         <v>99</v>
       </c>
       <c r="BR250" s="1" t="s">
-        <v>2723</v>
+        <v>2722</v>
       </c>
       <c r="BS250" s="3">
         <v>41024</v>
       </c>
       <c r="BT250" s="1" t="s">
-        <v>2724</v>
+        <v>2723</v>
       </c>
       <c r="BU250" s="1" t="s">
         <v>118</v>
@@ -53119,13 +53056,13 @@
         <v>107</v>
       </c>
       <c r="CC250" s="1" t="s">
+        <v>2724</v>
+      </c>
+      <c r="CD250" s="1" t="s">
         <v>2725</v>
       </c>
-      <c r="CD250" s="1" t="s">
+      <c r="CE250" s="1" t="s">
         <v>2726</v>
-      </c>
-      <c r="CE250" s="1" t="s">
-        <v>2727</v>
       </c>
     </row>
     <row r="251" spans="1:83" x14ac:dyDescent="0.25">
@@ -53160,19 +53097,19 @@
         <v>93</v>
       </c>
       <c r="K251" s="1" t="s">
+        <v>2727</v>
+      </c>
+      <c r="L251" s="1" t="s">
         <v>2728</v>
       </c>
-      <c r="L251" s="1" t="s">
+      <c r="N251" s="1" t="s">
         <v>2729</v>
       </c>
-      <c r="N251" s="1" t="s">
+      <c r="O251" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="P251" s="1" t="s">
         <v>2730</v>
-      </c>
-      <c r="O251" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="P251" s="1" t="s">
-        <v>2731</v>
       </c>
       <c r="Q251" s="3">
         <v>18645</v>
@@ -53199,7 +53136,7 @@
         <v>103</v>
       </c>
       <c r="AG251" s="1" t="s">
-        <v>2560</v>
+        <v>2559</v>
       </c>
       <c r="AH251" s="1" t="s">
         <v>1873</v>
@@ -53223,28 +53160,28 @@
         <v>97</v>
       </c>
       <c r="AQ251" s="1" t="s">
+        <v>2731</v>
+      </c>
+      <c r="AR251" s="1">
+        <v>0</v>
+      </c>
+      <c r="AS251" s="1">
+        <v>0</v>
+      </c>
+      <c r="AT251" s="1">
+        <v>0</v>
+      </c>
+      <c r="AU251" s="1">
+        <v>0</v>
+      </c>
+      <c r="AV251" s="1">
+        <v>0</v>
+      </c>
+      <c r="AY251" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="AZ251" s="1" t="s">
         <v>2732</v>
-      </c>
-      <c r="AR251" s="1">
-        <v>0</v>
-      </c>
-      <c r="AS251" s="1">
-        <v>0</v>
-      </c>
-      <c r="AT251" s="1">
-        <v>0</v>
-      </c>
-      <c r="AU251" s="1">
-        <v>0</v>
-      </c>
-      <c r="AV251" s="1">
-        <v>0</v>
-      </c>
-      <c r="AY251" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="AZ251" s="1" t="s">
-        <v>2733</v>
       </c>
       <c r="BB251" s="1">
         <v>6</v>
@@ -53262,7 +53199,7 @@
         <v>111</v>
       </c>
       <c r="BH251" s="1" t="s">
-        <v>2734</v>
+        <v>2733</v>
       </c>
       <c r="BI251" s="1" t="s">
         <v>843</v>
@@ -53277,13 +53214,13 @@
         <v>115</v>
       </c>
       <c r="BR251" s="1" t="s">
-        <v>2735</v>
+        <v>2734</v>
       </c>
       <c r="BS251" s="3">
         <v>34808</v>
       </c>
       <c r="BT251" s="1" t="s">
-        <v>2736</v>
+        <v>2735</v>
       </c>
       <c r="BU251" s="1" t="s">
         <v>118</v>
@@ -53301,13 +53238,13 @@
         <v>107</v>
       </c>
       <c r="CC251" s="1" t="s">
+        <v>2736</v>
+      </c>
+      <c r="CD251" s="1" t="s">
         <v>2737</v>
       </c>
-      <c r="CD251" s="1" t="s">
+      <c r="CE251" s="1" t="s">
         <v>2738</v>
-      </c>
-      <c r="CE251" s="1" t="s">
-        <v>2739</v>
       </c>
     </row>
     <row r="252" spans="1:83" x14ac:dyDescent="0.25">
@@ -53342,19 +53279,19 @@
         <v>93</v>
       </c>
       <c r="K252" s="1" t="s">
+        <v>2739</v>
+      </c>
+      <c r="L252" s="1" t="s">
         <v>2740</v>
       </c>
-      <c r="L252" s="1" t="s">
+      <c r="N252" s="1" t="s">
         <v>2741</v>
       </c>
-      <c r="N252" s="1" t="s">
+      <c r="O252" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="P252" s="1" t="s">
         <v>2742</v>
-      </c>
-      <c r="O252" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="P252" s="1" t="s">
-        <v>2743</v>
       </c>
       <c r="Q252" s="3">
         <v>30408</v>
@@ -53423,7 +53360,7 @@
         <v>107</v>
       </c>
       <c r="AZ252" s="1" t="s">
-        <v>2744</v>
+        <v>2743</v>
       </c>
       <c r="BB252" s="1">
         <v>6</v>
@@ -53441,10 +53378,10 @@
         <v>111</v>
       </c>
       <c r="BH252" s="1" t="s">
+        <v>2744</v>
+      </c>
+      <c r="BI252" s="1" t="s">
         <v>2745</v>
-      </c>
-      <c r="BI252" s="1" t="s">
-        <v>2746</v>
       </c>
       <c r="BM252" s="1" t="s">
         <v>114</v>
@@ -53456,13 +53393,13 @@
         <v>99</v>
       </c>
       <c r="BR252" s="1" t="s">
-        <v>2747</v>
+        <v>2746</v>
       </c>
       <c r="BS252" s="3">
         <v>37336</v>
       </c>
       <c r="BT252" s="1" t="s">
-        <v>2748</v>
+        <v>2747</v>
       </c>
       <c r="BU252" s="1" t="s">
         <v>118</v>
@@ -53480,13 +53417,13 @@
         <v>107</v>
       </c>
       <c r="CC252" s="1" t="s">
+        <v>2748</v>
+      </c>
+      <c r="CD252" s="1" t="s">
         <v>2749</v>
       </c>
-      <c r="CD252" s="1" t="s">
+      <c r="CE252" s="1" t="s">
         <v>2750</v>
-      </c>
-      <c r="CE252" s="1" t="s">
-        <v>2751</v>
       </c>
     </row>
     <row r="253" spans="1:83" x14ac:dyDescent="0.25">
@@ -53521,19 +53458,19 @@
         <v>93</v>
       </c>
       <c r="K253" s="1" t="s">
+        <v>2751</v>
+      </c>
+      <c r="L253" s="1" t="s">
         <v>2752</v>
       </c>
-      <c r="L253" s="1" t="s">
+      <c r="N253" s="1" t="s">
         <v>2753</v>
       </c>
-      <c r="N253" s="1" t="s">
+      <c r="O253" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="P253" s="1" t="s">
         <v>2754</v>
-      </c>
-      <c r="O253" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="P253" s="1" t="s">
-        <v>2755</v>
       </c>
       <c r="Q253" s="3">
         <v>28132</v>
@@ -53605,7 +53542,7 @@
         <v>107</v>
       </c>
       <c r="AZ253" s="1" t="s">
-        <v>2756</v>
+        <v>2755</v>
       </c>
       <c r="BB253" s="1">
         <v>6</v>
@@ -53623,7 +53560,7 @@
         <v>111</v>
       </c>
       <c r="BH253" s="1" t="s">
-        <v>2757</v>
+        <v>2756</v>
       </c>
       <c r="BI253" s="1" t="s">
         <v>616</v>
@@ -53635,7 +53572,7 @@
         <v>102</v>
       </c>
       <c r="BT253" s="1" t="s">
-        <v>2758</v>
+        <v>2757</v>
       </c>
       <c r="BU253" s="1" t="s">
         <v>118</v>
@@ -53653,13 +53590,13 @@
         <v>107</v>
       </c>
       <c r="CC253" s="1" t="s">
+        <v>2758</v>
+      </c>
+      <c r="CD253" s="1" t="s">
         <v>2759</v>
       </c>
-      <c r="CD253" s="1" t="s">
+      <c r="CE253" s="1" t="s">
         <v>2760</v>
-      </c>
-      <c r="CE253" s="1" t="s">
-        <v>2761</v>
       </c>
     </row>
     <row r="254" spans="1:83" x14ac:dyDescent="0.25">
@@ -53694,19 +53631,19 @@
         <v>93</v>
       </c>
       <c r="K254" s="1" t="s">
+        <v>2761</v>
+      </c>
+      <c r="L254" s="1" t="s">
         <v>2762</v>
       </c>
-      <c r="L254" s="1" t="s">
+      <c r="N254" s="1" t="s">
         <v>2763</v>
       </c>
-      <c r="N254" s="1" t="s">
+      <c r="O254" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="P254" s="1" t="s">
         <v>2764</v>
-      </c>
-      <c r="O254" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="P254" s="1" t="s">
-        <v>2765</v>
       </c>
       <c r="Q254" s="3">
         <v>31743</v>
@@ -53793,7 +53730,7 @@
         <v>111</v>
       </c>
       <c r="BH254" s="1" t="s">
-        <v>2766</v>
+        <v>2765</v>
       </c>
       <c r="BM254" s="1" t="s">
         <v>114</v>
@@ -53802,7 +53739,7 @@
         <v>102</v>
       </c>
       <c r="BT254" s="1" t="s">
-        <v>2767</v>
+        <v>2766</v>
       </c>
       <c r="BU254" s="1" t="s">
         <v>118</v>
@@ -53820,13 +53757,13 @@
         <v>107</v>
       </c>
       <c r="CC254" s="1" t="s">
+        <v>2767</v>
+      </c>
+      <c r="CD254" s="1" t="s">
         <v>2768</v>
       </c>
-      <c r="CD254" s="1" t="s">
+      <c r="CE254" s="1" t="s">
         <v>2769</v>
-      </c>
-      <c r="CE254" s="1" t="s">
-        <v>2770</v>
       </c>
     </row>
     <row r="255" spans="1:83" x14ac:dyDescent="0.25">
@@ -53861,19 +53798,19 @@
         <v>162</v>
       </c>
       <c r="K255" s="1" t="s">
+        <v>2770</v>
+      </c>
+      <c r="L255" s="1" t="s">
         <v>2771</v>
       </c>
-      <c r="L255" s="1" t="s">
+      <c r="N255" s="1" t="s">
         <v>2772</v>
       </c>
-      <c r="N255" s="1" t="s">
+      <c r="O255" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="P255" s="1" t="s">
         <v>2773</v>
-      </c>
-      <c r="O255" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="P255" s="1" t="s">
-        <v>2774</v>
       </c>
       <c r="R255" s="1" t="s">
         <v>131</v>
@@ -53960,13 +53897,13 @@
         <v>111</v>
       </c>
       <c r="BH255" s="1" t="s">
-        <v>2775</v>
+        <v>2774</v>
       </c>
       <c r="BM255" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BT255" s="1" t="s">
-        <v>2776</v>
+        <v>2775</v>
       </c>
       <c r="BU255" s="1" t="s">
         <v>118</v>
@@ -53984,13 +53921,13 @@
         <v>107</v>
       </c>
       <c r="CC255" s="1" t="s">
-        <v>2777</v>
+        <v>2776</v>
       </c>
       <c r="CD255" s="1" t="s">
         <v>2309</v>
       </c>
       <c r="CE255" s="1" t="s">
-        <v>2778</v>
+        <v>2777</v>
       </c>
     </row>
     <row r="256" spans="1:83" x14ac:dyDescent="0.25">
@@ -54019,7 +53956,7 @@
         <v>91</v>
       </c>
       <c r="I256" s="1" t="s">
-        <v>2779</v>
+        <v>2778</v>
       </c>
       <c r="J256" s="1" t="s">
         <v>93</v>
@@ -54028,10 +53965,10 @@
         <v>263</v>
       </c>
       <c r="L256" s="1" t="s">
+        <v>2779</v>
+      </c>
+      <c r="M256" s="1" t="s">
         <v>2780</v>
-      </c>
-      <c r="M256" s="1" t="s">
-        <v>2781</v>
       </c>
       <c r="N256" s="1" t="s">
         <v>265</v>
@@ -54061,7 +53998,7 @@
         <v>42582</v>
       </c>
       <c r="AD256" s="1" t="s">
-        <v>2782</v>
+        <v>2781</v>
       </c>
       <c r="AF256" s="1" t="s">
         <v>103</v>
@@ -54112,10 +54049,10 @@
         <v>267</v>
       </c>
       <c r="BH256" s="1" t="s">
+        <v>2782</v>
+      </c>
+      <c r="BI256" s="1" t="s">
         <v>2783</v>
-      </c>
-      <c r="BI256" s="1" t="s">
-        <v>2784</v>
       </c>
       <c r="BM256" s="1" t="s">
         <v>114</v>
@@ -54171,7 +54108,7 @@
         <v>124</v>
       </c>
       <c r="E257" s="1" t="s">
-        <v>2785</v>
+        <v>2784</v>
       </c>
       <c r="F257" s="1" t="s">
         <v>89</v>
@@ -54189,16 +54126,16 @@
         <v>93</v>
       </c>
       <c r="K257" s="1" t="s">
+        <v>2785</v>
+      </c>
+      <c r="L257" s="1" t="s">
         <v>2786</v>
       </c>
-      <c r="L257" s="1" t="s">
+      <c r="M257" s="1" t="s">
+        <v>2780</v>
+      </c>
+      <c r="N257" s="1" t="s">
         <v>2787</v>
-      </c>
-      <c r="M257" s="1" t="s">
-        <v>2781</v>
-      </c>
-      <c r="N257" s="1" t="s">
-        <v>2788</v>
       </c>
       <c r="Q257" s="3">
         <v>17060</v>
@@ -54231,7 +54168,7 @@
         <v>42628</v>
       </c>
       <c r="AD257" s="1" t="s">
-        <v>2789</v>
+        <v>2788</v>
       </c>
       <c r="AF257" s="1" t="s">
         <v>103</v>
@@ -54282,16 +54219,16 @@
         <v>107</v>
       </c>
       <c r="AZ257" s="1" t="s">
-        <v>2790</v>
+        <v>2789</v>
       </c>
       <c r="BD257" s="1" t="s">
         <v>231</v>
       </c>
       <c r="BH257" s="1" t="s">
+        <v>2790</v>
+      </c>
+      <c r="BI257" s="1" t="s">
         <v>2791</v>
-      </c>
-      <c r="BI257" s="1" t="s">
-        <v>2792</v>
       </c>
       <c r="BM257" s="1" t="s">
         <v>114</v>
@@ -54300,7 +54237,7 @@
         <v>102</v>
       </c>
       <c r="BT257" s="1" t="s">
-        <v>2793</v>
+        <v>2792</v>
       </c>
       <c r="BU257" s="1" t="s">
         <v>118</v>
@@ -54324,7 +54261,7 @@
         <v>122</v>
       </c>
       <c r="CE257" s="1" t="s">
-        <v>2794</v>
+        <v>2793</v>
       </c>
     </row>
     <row r="258" spans="1:83" x14ac:dyDescent="0.25">
@@ -54341,7 +54278,7 @@
         <v>124</v>
       </c>
       <c r="E258" s="1" t="s">
-        <v>2795</v>
+        <v>2794</v>
       </c>
       <c r="F258" s="1" t="s">
         <v>107</v>
@@ -54353,22 +54290,22 @@
         <v>91</v>
       </c>
       <c r="I258" s="1" t="s">
-        <v>2796</v>
+        <v>2795</v>
       </c>
       <c r="J258" s="1" t="s">
         <v>93</v>
       </c>
       <c r="K258" s="1" t="s">
+        <v>2796</v>
+      </c>
+      <c r="L258" s="1" t="s">
         <v>2797</v>
       </c>
-      <c r="L258" s="1" t="s">
+      <c r="M258" s="1" t="s">
+        <v>2780</v>
+      </c>
+      <c r="N258" s="1" t="s">
         <v>2798</v>
-      </c>
-      <c r="M258" s="1" t="s">
-        <v>2781</v>
-      </c>
-      <c r="N258" s="1" t="s">
-        <v>2799</v>
       </c>
       <c r="Q258" s="3">
         <v>26864</v>
@@ -54398,7 +54335,7 @@
         <v>42735</v>
       </c>
       <c r="AD258" s="1" t="s">
-        <v>2800</v>
+        <v>2799</v>
       </c>
       <c r="AF258" s="1" t="s">
         <v>103</v>
@@ -54449,7 +54386,7 @@
         <v>99</v>
       </c>
       <c r="BH258" s="1" t="s">
-        <v>2801</v>
+        <v>2800</v>
       </c>
       <c r="BM258" s="1" t="s">
         <v>114</v>
@@ -54461,13 +54398,13 @@
         <v>218</v>
       </c>
       <c r="BR258" s="1" t="s">
-        <v>2802</v>
+        <v>2801</v>
       </c>
       <c r="BS258" s="3">
         <v>102</v>
       </c>
       <c r="BT258" s="1" t="s">
-        <v>2803</v>
+        <v>2802</v>
       </c>
       <c r="BU258" s="1" t="s">
         <v>118</v>
@@ -54488,13 +54425,13 @@
         <v>107</v>
       </c>
       <c r="CC258" s="1" t="s">
+        <v>2803</v>
+      </c>
+      <c r="CD258" s="1" t="s">
         <v>2804</v>
       </c>
-      <c r="CD258" s="1" t="s">
+      <c r="CE258" s="1" t="s">
         <v>2805</v>
-      </c>
-      <c r="CE258" s="1" t="s">
-        <v>2806</v>
       </c>
     </row>
     <row r="259" spans="1:83" x14ac:dyDescent="0.25">
@@ -54523,22 +54460,22 @@
         <v>91</v>
       </c>
       <c r="I259" s="1" t="s">
-        <v>2779</v>
+        <v>2778</v>
       </c>
       <c r="J259" s="1" t="s">
         <v>93</v>
       </c>
       <c r="K259" s="1" t="s">
+        <v>2806</v>
+      </c>
+      <c r="L259" s="1" t="s">
         <v>2807</v>
       </c>
-      <c r="L259" s="1" t="s">
+      <c r="M259" s="1" t="s">
+        <v>2780</v>
+      </c>
+      <c r="N259" s="1" t="s">
         <v>2808</v>
-      </c>
-      <c r="M259" s="1" t="s">
-        <v>2781</v>
-      </c>
-      <c r="N259" s="1" t="s">
-        <v>2809</v>
       </c>
       <c r="Q259" s="3">
         <v>17041</v>
@@ -54565,7 +54502,7 @@
         <v>42735</v>
       </c>
       <c r="AD259" s="1" t="s">
-        <v>2789</v>
+        <v>2788</v>
       </c>
       <c r="AF259" s="1" t="s">
         <v>103</v>
@@ -54616,7 +54553,7 @@
         <v>107</v>
       </c>
       <c r="BH259" s="1" t="s">
-        <v>2810</v>
+        <v>2809</v>
       </c>
       <c r="BM259" s="1" t="s">
         <v>114</v>
@@ -54625,7 +54562,7 @@
         <v>102</v>
       </c>
       <c r="BT259" s="1" t="s">
-        <v>2811</v>
+        <v>2810</v>
       </c>
       <c r="BU259" s="1" t="s">
         <v>118</v>
@@ -54646,13 +54583,13 @@
         <v>107</v>
       </c>
       <c r="CC259" s="1" t="s">
+        <v>2811</v>
+      </c>
+      <c r="CD259" s="1" t="s">
         <v>2812</v>
       </c>
-      <c r="CD259" s="1" t="s">
+      <c r="CE259" s="1" t="s">
         <v>2813</v>
-      </c>
-      <c r="CE259" s="1" t="s">
-        <v>2814</v>
       </c>
     </row>
     <row r="260" spans="1:83" x14ac:dyDescent="0.25">
@@ -54687,16 +54624,16 @@
         <v>93</v>
       </c>
       <c r="K260" s="1" t="s">
+        <v>2814</v>
+      </c>
+      <c r="L260" s="1" t="s">
         <v>2815</v>
       </c>
-      <c r="L260" s="1" t="s">
+      <c r="M260" s="1" t="s">
+        <v>2780</v>
+      </c>
+      <c r="N260" s="1" t="s">
         <v>2816</v>
-      </c>
-      <c r="M260" s="1" t="s">
-        <v>2781</v>
-      </c>
-      <c r="N260" s="1" t="s">
-        <v>2817</v>
       </c>
       <c r="Q260" s="3">
         <v>25379</v>
@@ -54726,7 +54663,7 @@
         <v>39800</v>
       </c>
       <c r="AD260" s="1" t="s">
-        <v>2818</v>
+        <v>2817</v>
       </c>
       <c r="AF260" s="1" t="s">
         <v>240</v>
@@ -54777,7 +54714,7 @@
         <v>99</v>
       </c>
       <c r="BH260" s="1" t="s">
-        <v>2819</v>
+        <v>2818</v>
       </c>
       <c r="BM260" s="1" t="s">
         <v>114</v>
@@ -54789,13 +54726,13 @@
         <v>229</v>
       </c>
       <c r="BR260" s="1" t="s">
-        <v>2820</v>
+        <v>2819</v>
       </c>
       <c r="BS260" s="3">
         <v>35915</v>
       </c>
       <c r="BT260" s="1" t="s">
-        <v>2821</v>
+        <v>2820</v>
       </c>
       <c r="BU260" s="1" t="s">
         <v>118</v>
@@ -54810,7 +54747,7 @@
         <v>241</v>
       </c>
       <c r="BZ260" s="1" t="s">
-        <v>2822</v>
+        <v>2821</v>
       </c>
       <c r="CA260" s="1" t="s">
         <v>120</v>
@@ -54825,7 +54762,7 @@
         <v>465</v>
       </c>
       <c r="CE260" s="1" t="s">
-        <v>2823</v>
+        <v>2822</v>
       </c>
     </row>
     <row r="261" spans="1:83" x14ac:dyDescent="0.25">
@@ -54860,19 +54797,19 @@
         <v>93</v>
       </c>
       <c r="K261" s="1" t="s">
+        <v>2823</v>
+      </c>
+      <c r="L261" s="1" t="s">
         <v>2824</v>
       </c>
-      <c r="L261" s="1" t="s">
+      <c r="N261" s="1" t="s">
         <v>2825</v>
       </c>
-      <c r="N261" s="1" t="s">
+      <c r="O261" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="P261" s="1" t="s">
         <v>2826</v>
-      </c>
-      <c r="O261" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="P261" s="1" t="s">
-        <v>2827</v>
       </c>
       <c r="Q261" s="3">
         <v>23750</v>
@@ -54901,12 +54838,7 @@
       <c r="AA261" s="1">
         <v>0</v>
       </c>
-      <c r="AC261" s="3">
-        <v>43008</v>
-      </c>
-      <c r="AD261" s="1" t="s">
-        <v>2828</v>
-      </c>
+      <c r="AC261" s="3"/>
       <c r="AF261" s="1" t="s">
         <v>103</v>
       </c>
@@ -54956,7 +54888,7 @@
         <v>107</v>
       </c>
       <c r="AZ261" s="1" t="s">
-        <v>2829</v>
+        <v>2827</v>
       </c>
       <c r="BB261" s="1">
         <v>6</v>
@@ -54977,7 +54909,7 @@
         <v>111</v>
       </c>
       <c r="BH261" s="1" t="s">
-        <v>2830</v>
+        <v>2828</v>
       </c>
       <c r="BI261" s="1" t="s">
         <v>1735</v>
@@ -54989,7 +54921,7 @@
         <v>102</v>
       </c>
       <c r="BT261" s="1" t="s">
-        <v>2831</v>
+        <v>2829</v>
       </c>
       <c r="BU261" s="1" t="s">
         <v>118</v>
@@ -55013,10 +54945,10 @@
         <v>1149</v>
       </c>
       <c r="CD261" s="1" t="s">
-        <v>2832</v>
+        <v>2830</v>
       </c>
       <c r="CE261" s="1" t="s">
-        <v>2833</v>
+        <v>2831</v>
       </c>
     </row>
     <row r="262" spans="1:83" x14ac:dyDescent="0.25">
@@ -55051,19 +54983,19 @@
         <v>93</v>
       </c>
       <c r="K262" s="1" t="s">
+        <v>2832</v>
+      </c>
+      <c r="L262" s="1" t="s">
+        <v>2833</v>
+      </c>
+      <c r="N262" s="1" t="s">
         <v>2834</v>
       </c>
-      <c r="L262" s="1" t="s">
+      <c r="O262" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="P262" s="1" t="s">
         <v>2835</v>
-      </c>
-      <c r="N262" s="1" t="s">
-        <v>2836</v>
-      </c>
-      <c r="O262" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="P262" s="1" t="s">
-        <v>2837</v>
       </c>
       <c r="Q262" s="3">
         <v>22645</v>
@@ -55147,10 +55079,10 @@
         <v>111</v>
       </c>
       <c r="BH262" s="1" t="s">
-        <v>2838</v>
+        <v>2836</v>
       </c>
       <c r="BI262" s="1" t="s">
-        <v>2839</v>
+        <v>2837</v>
       </c>
       <c r="BM262" s="1" t="s">
         <v>114</v>
@@ -55159,13 +55091,13 @@
         <v>99</v>
       </c>
       <c r="BR262" s="1" t="s">
-        <v>2840</v>
+        <v>2838</v>
       </c>
       <c r="BS262" s="3">
         <v>35209</v>
       </c>
       <c r="BT262" s="1" t="s">
-        <v>2841</v>
+        <v>2839</v>
       </c>
       <c r="BU262" s="1" t="s">
         <v>118</v>
@@ -55186,10 +55118,10 @@
         <v>1634</v>
       </c>
       <c r="CD262" s="1" t="s">
-        <v>2842</v>
+        <v>2840</v>
       </c>
       <c r="CE262" s="1" t="s">
-        <v>2727</v>
+        <v>2726</v>
       </c>
     </row>
     <row r="263" spans="1:83" x14ac:dyDescent="0.25">
@@ -55224,16 +55156,16 @@
         <v>93</v>
       </c>
       <c r="K263" s="1" t="s">
+        <v>2841</v>
+      </c>
+      <c r="L263" s="1" t="s">
+        <v>2842</v>
+      </c>
+      <c r="M263" s="1" t="s">
+        <v>2780</v>
+      </c>
+      <c r="N263" s="1" t="s">
         <v>2843</v>
-      </c>
-      <c r="L263" s="1" t="s">
-        <v>2844</v>
-      </c>
-      <c r="M263" s="1" t="s">
-        <v>2781</v>
-      </c>
-      <c r="N263" s="1" t="s">
-        <v>2845</v>
       </c>
       <c r="Q263" s="3">
         <v>17470</v>
@@ -55263,7 +55195,7 @@
         <v>43100</v>
       </c>
       <c r="AD263" s="1" t="s">
-        <v>2789</v>
+        <v>2788</v>
       </c>
       <c r="AF263" s="1" t="s">
         <v>103</v>
@@ -55314,7 +55246,7 @@
         <v>107</v>
       </c>
       <c r="BH263" s="1" t="s">
-        <v>2846</v>
+        <v>2844</v>
       </c>
       <c r="BM263" s="1" t="s">
         <v>114</v>
@@ -55323,7 +55255,7 @@
         <v>102</v>
       </c>
       <c r="BT263" s="1" t="s">
-        <v>2847</v>
+        <v>2845</v>
       </c>
       <c r="BU263" s="1" t="s">
         <v>118</v>
@@ -55338,7 +55270,7 @@
         <v>97</v>
       </c>
       <c r="BZ263" s="1" t="s">
-        <v>2822</v>
+        <v>2821</v>
       </c>
       <c r="CA263" s="1" t="s">
         <v>120</v>
@@ -55347,13 +55279,13 @@
         <v>107</v>
       </c>
       <c r="CC263" s="1" t="s">
+        <v>2846</v>
+      </c>
+      <c r="CD263" s="1" t="s">
+        <v>2847</v>
+      </c>
+      <c r="CE263" s="1" t="s">
         <v>2848</v>
-      </c>
-      <c r="CD263" s="1" t="s">
-        <v>2849</v>
-      </c>
-      <c r="CE263" s="1" t="s">
-        <v>2850</v>
       </c>
     </row>
     <row r="264" spans="1:83" x14ac:dyDescent="0.25">
@@ -55388,7 +55320,7 @@
         <v>93</v>
       </c>
       <c r="K264" s="1" t="s">
-        <v>2851</v>
+        <v>2849</v>
       </c>
       <c r="L264" s="1" t="s">
         <v>2313</v>
@@ -55507,16 +55439,16 @@
         <v>93</v>
       </c>
       <c r="K265" s="1" t="s">
+        <v>2850</v>
+      </c>
+      <c r="L265" s="1" t="s">
+        <v>2851</v>
+      </c>
+      <c r="M265" s="1" t="s">
+        <v>2780</v>
+      </c>
+      <c r="N265" s="1" t="s">
         <v>2852</v>
-      </c>
-      <c r="L265" s="1" t="s">
-        <v>2853</v>
-      </c>
-      <c r="M265" s="1" t="s">
-        <v>2781</v>
-      </c>
-      <c r="N265" s="1" t="s">
-        <v>2854</v>
       </c>
       <c r="Q265" s="3">
         <v>23356</v>
@@ -55543,7 +55475,7 @@
         <v>43105</v>
       </c>
       <c r="AD265" s="1" t="s">
-        <v>2855</v>
+        <v>2853</v>
       </c>
       <c r="AF265" s="1" t="s">
         <v>103</v>
@@ -55591,7 +55523,7 @@
         <v>107</v>
       </c>
       <c r="BH265" s="1" t="s">
-        <v>2856</v>
+        <v>2854</v>
       </c>
       <c r="BM265" s="1" t="s">
         <v>114</v>
@@ -55603,13 +55535,13 @@
         <v>99</v>
       </c>
       <c r="BR265" s="1" t="s">
-        <v>2857</v>
+        <v>2855</v>
       </c>
       <c r="BS265" s="3">
         <v>34412</v>
       </c>
       <c r="BT265" s="1" t="s">
-        <v>2858</v>
+        <v>2856</v>
       </c>
       <c r="BU265" s="1" t="s">
         <v>118</v>
@@ -55627,13 +55559,13 @@
         <v>107</v>
       </c>
       <c r="CC265" s="1" t="s">
-        <v>2859</v>
+        <v>2857</v>
       </c>
       <c r="CD265" s="1" t="s">
         <v>2323</v>
       </c>
       <c r="CE265" s="1" t="s">
-        <v>2860</v>
+        <v>2858</v>
       </c>
     </row>
     <row r="266" spans="1:83" x14ac:dyDescent="0.25">
@@ -55668,19 +55600,19 @@
         <v>162</v>
       </c>
       <c r="K266" s="1" t="s">
+        <v>2859</v>
+      </c>
+      <c r="L266" s="1" t="s">
+        <v>2860</v>
+      </c>
+      <c r="N266" s="1" t="s">
         <v>2861</v>
       </c>
-      <c r="L266" s="1" t="s">
+      <c r="O266" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="P266" s="1" t="s">
         <v>2862</v>
-      </c>
-      <c r="N266" s="1" t="s">
-        <v>2863</v>
-      </c>
-      <c r="O266" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="P266" s="1" t="s">
-        <v>2864</v>
       </c>
       <c r="Q266" s="3">
         <v>29466</v>
@@ -55770,13 +55702,13 @@
         <v>111</v>
       </c>
       <c r="BH266" s="1" t="s">
-        <v>2865</v>
+        <v>2863</v>
       </c>
       <c r="BM266" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BT266" s="1" t="s">
-        <v>2866</v>
+        <v>2864</v>
       </c>
       <c r="BU266" s="1" t="s">
         <v>118</v>
@@ -55794,16 +55726,17 @@
         <v>107</v>
       </c>
       <c r="CC266" s="1" t="s">
+        <v>2865</v>
+      </c>
+      <c r="CD266" s="1" t="s">
+        <v>2866</v>
+      </c>
+      <c r="CE266" s="1" t="s">
         <v>2867</v>
-      </c>
-      <c r="CD266" s="1" t="s">
-        <v>2868</v>
-      </c>
-      <c r="CE266" s="1" t="s">
-        <v>2869</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:CF266" xr:uid="{3D637FC7-89C2-416D-BA50-63E4FB698E77}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>